--- a/src/output/Top_Excel_with_OCR_Results.xlsx
+++ b/src/output/Top_Excel_with_OCR_Results.xlsx
@@ -663,28 +663,53 @@
       <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">825
+</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111362
+</t>
+        </is>
+      </c>
       <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">900
+</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8243
+</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1182
+</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
@@ -696,84 +721,94 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1227
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">274
+          <t xml:space="preserve">834
 </t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
-</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr"/>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
+</t>
+        </is>
+      </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">330
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="T4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1561
+          <t xml:space="preserve">1689
 </t>
         </is>
       </c>
       <c r="U4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1220
+          <t xml:space="preserve">1122
 </t>
         </is>
       </c>
       <c r="V4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1286
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">743
-</t>
-        </is>
-      </c>
-      <c r="Z4" s="1" t="n"/>
+          <t xml:space="preserve">818
+</t>
+        </is>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
       <c r="AA4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1
@@ -782,159 +817,149 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31
-</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">2
 </t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2513
+          <t xml:space="preserve">12035
 </t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">335
+          <t xml:space="preserve">1396
 </t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">227
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
-</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">196
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">144
+</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">35
 </t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">131
+          <t xml:space="preserve">1155
 </t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">189
+</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
+</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">216
 </t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">214
-</t>
-        </is>
-      </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0990
+</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09
+</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">326
+</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">254
 </t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">104
-</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">260
-</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">230
-</t>
-        </is>
-      </c>
       <c r="S5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="T5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">780
+          <t xml:space="preserve">1566
 </t>
         </is>
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1220
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="W5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">1278
 </t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">920
+          <t xml:space="preserve">770
 </t>
         </is>
       </c>
       <c r="Z5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
@@ -947,52 +972,52 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2781
-</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">114223
+</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1311
+          <t xml:space="preserve">3142
 </t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">1172
 </t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">1146
 </t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">85
+          <t xml:space="preserve">72
 </t>
         </is>
       </c>
@@ -1004,228 +1029,243 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1213
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">23510
 </t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">920
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">107
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">314
+          <t xml:space="preserve">342
 </t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2219
+          <t xml:space="preserve">257
 </t>
         </is>
       </c>
       <c r="S6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">2386
 </t>
         </is>
       </c>
       <c r="T6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">996
+          <t xml:space="preserve">2998
 </t>
         </is>
       </c>
       <c r="U6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1283
+          <t xml:space="preserve">295
 </t>
         </is>
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">2641
 </t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">754
+          <t xml:space="preserve">662
 </t>
         </is>
       </c>
       <c r="Z6" s="1" t="inlineStr"/>
       <c r="AA6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3680
-</t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9
+</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">814
+          <t xml:space="preserve">347
 </t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">9267
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">140
 </t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">1190
 </t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
-</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr"/>
+          <t xml:space="preserve">282
+</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79
+</t>
+        </is>
+      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">01
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
-      <c r="N7" s="1" t="inlineStr"/>
+          <t xml:space="preserve">206
+</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2409
+</t>
+        </is>
+      </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">965
+</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11214
+</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">255
+</t>
+        </is>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">251
+</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">980
 </t>
         </is>
       </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3119
-</t>
-        </is>
-      </c>
-      <c r="R7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">253
-</t>
-        </is>
-      </c>
-      <c r="S7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="T7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">595
-</t>
-        </is>
-      </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1287
+          <t xml:space="preserve">11222
 </t>
         </is>
       </c>
       <c r="W7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">732
-</t>
-        </is>
-      </c>
-      <c r="Z7" s="1" t="n"/>
+          <t xml:space="preserve">974
+</t>
+        </is>
+      </c>
+      <c r="Z7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">138
+</t>
+        </is>
+      </c>
       <c r="AA7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">4
@@ -1235,411 +1275,521 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">42182
-</t>
-        </is>
-      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">324
+          <t xml:space="preserve">1648
 </t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n"/>
-      <c r="G8" s="1" t="n"/>
+          <t xml:space="preserve">969
+</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1303
+</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">679
+</t>
+        </is>
+      </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">894
 </t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">1165
 </t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">58
-</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">275
+</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">1002
 </t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">217
-</t>
-        </is>
-      </c>
-      <c r="N8" s="1" t="inlineStr"/>
+          <t xml:space="preserve">996
+</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1158
+</t>
+        </is>
+      </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">965
+          <t xml:space="preserve">4945
 </t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">019
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">333
+          <t xml:space="preserve">1496
 </t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="S8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">11357
 </t>
         </is>
       </c>
       <c r="T8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">548
+          <t xml:space="preserve">2299
 </t>
         </is>
       </c>
       <c r="U8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">810
 </t>
         </is>
       </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1281
+          <t xml:space="preserve">1328
 </t>
         </is>
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">1168
 </t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">1335
 </t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">742
+          <t xml:space="preserve">9888
 </t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">98
+          <t xml:space="preserve">416
 </t>
         </is>
       </c>
       <c r="AA8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1109
+</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
-</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3680
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">13567
+</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">333
+          <t xml:space="preserve">330
 </t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">918
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
-</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="n"/>
-      <c r="I9" s="1" t="n"/>
-      <c r="J9" s="1" t="n"/>
+          <t xml:space="preserve">136
+</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1179
+</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33
+</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55
+</t>
+        </is>
+      </c>
       <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
-      <c r="P9" s="1" t="n"/>
-      <c r="Q9" s="1" t="n"/>
-      <c r="R9" s="1" t="n"/>
-      <c r="S9" s="1" t="n"/>
-      <c r="T9" s="1" t="n"/>
-      <c r="U9" s="1" t="n"/>
-      <c r="V9" s="1" t="n"/>
-      <c r="W9" s="1" t="n"/>
-      <c r="X9" s="1" t="n"/>
-      <c r="Y9" s="1" t="n"/>
-      <c r="Z9" s="1" t="n"/>
-      <c r="AA9" s="1" t="n"/>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200
+</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1232
+</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">989
+</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">299
+</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">244
+</t>
+        </is>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">660
+</t>
+        </is>
+      </c>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2162
+</t>
+        </is>
+      </c>
+      <c r="V9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11266
+</t>
+        </is>
+      </c>
+      <c r="W9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8234
+</t>
+        </is>
+      </c>
+      <c r="X9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">267
+</t>
+        </is>
+      </c>
+      <c r="Y9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">778
+</t>
+        </is>
+      </c>
+      <c r="Z9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83
+</t>
+        </is>
+      </c>
+      <c r="AA9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">109
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10724
-</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1345
-</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">115
+</t>
+        </is>
+      </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008
-</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr"/>
+          <t xml:space="preserve">182
+</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">116
+</t>
+        </is>
+      </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">212
+</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">209
 </t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20
-</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1094
-</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11870
-</t>
-        </is>
-      </c>
-      <c r="P10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31
-</t>
-        </is>
-      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1245
+</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">155
+          <t xml:space="preserve">1299
 </t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">182184
+          <t xml:space="preserve">1255
 </t>
         </is>
       </c>
       <c r="S10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1375
+          <t xml:space="preserve">19298
 </t>
         </is>
       </c>
       <c r="T10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">308 10
+          <t xml:space="preserve">706
 </t>
         </is>
       </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">901
+          <t xml:space="preserve">1124
 </t>
         </is>
       </c>
       <c r="V10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1257
-</t>
-        </is>
-      </c>
-      <c r="W10" s="1" t="n"/>
+          <t xml:space="preserve">1271
+</t>
+        </is>
+      </c>
+      <c r="W10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8249
+</t>
+        </is>
+      </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1395
+          <t xml:space="preserve">1301
 </t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3891
+          <t xml:space="preserve">840
 </t>
         </is>
       </c>
       <c r="Z10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">418
+          <t xml:space="preserve">578
 </t>
         </is>
       </c>
       <c r="AA10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">6
 </t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26
+</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6
+</t>
+        </is>
+      </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3567
+          <t xml:space="preserve">2471
 </t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">323
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
-</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1202
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">103
+</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">1271
 </t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">42
-</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="n"/>
+          <t xml:space="preserve">46
+</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">230
 </t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">974
+          <t xml:space="preserve">975
 </t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1311
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
@@ -1651,482 +1801,512 @@
       </c>
       <c r="S11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">616
+          <t xml:space="preserve">1528
 </t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">1198
 </t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1271
+          <t xml:space="preserve">1279
 </t>
         </is>
       </c>
       <c r="W11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">12146
 </t>
         </is>
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
+          <t xml:space="preserve">767
 </t>
         </is>
       </c>
       <c r="Z11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
       <c r="AA11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1107
+          <t xml:space="preserve">2
 </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1107
-</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n"/>
-      <c r="G12" s="1" t="n"/>
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4286
+</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">328
+</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">204
+</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">866
+</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">124
+</t>
+        </is>
+      </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1187
+          <t xml:space="preserve">1199
 </t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">41
+          <t xml:space="preserve">1233
 </t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">70
+          <t xml:space="preserve">60
 </t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">221
 </t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1205
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="S12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="T12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">563
+          <t xml:space="preserve">627
 </t>
         </is>
       </c>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">1280
 </t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2290
-</t>
-        </is>
-      </c>
-      <c r="Y12" s="1" t="inlineStr"/>
+          <t xml:space="preserve">293
+</t>
+        </is>
+      </c>
+      <c r="Y12" s="1" t="n"/>
       <c r="Z12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">85
 </t>
         </is>
       </c>
       <c r="AA12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">6
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">32
-</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">6
-</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4203
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">11903
+</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">333
+          <t xml:space="preserve">1207
 </t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">266
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">126
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1186
-</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr"/>
+          <t xml:space="preserve">203
+</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">150
-</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="n"/>
+          <t xml:space="preserve">121
+</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111
+</t>
+        </is>
+      </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">1224
 </t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">221
 </t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
-</t>
-        </is>
-      </c>
-      <c r="O13" s="1" t="n"/>
-      <c r="P13" s="1" t="n"/>
+          <t xml:space="preserve">264
+</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">973
+</t>
+        </is>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1328
+          <t xml:space="preserve">824
 </t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">8211
 </t>
         </is>
       </c>
       <c r="S13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
       <c r="T13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1580
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1296
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1256
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">303
-</t>
-        </is>
-      </c>
-      <c r="Y13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">732
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">255
+</t>
+        </is>
+      </c>
+      <c r="Y13" s="1" t="inlineStr"/>
       <c r="Z13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">111
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="AA13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">9
 </t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">112301
-</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10
+</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3596
+</t>
+        </is>
+      </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">1325
 </t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2229
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">83
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">1196
 </t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">39
 </t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">970
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">107
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">320
 </t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="T14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">679
+          <t xml:space="preserve">617
 </t>
         </is>
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">130
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1264
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">808
-</t>
-        </is>
-      </c>
-      <c r="Z14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">66
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">731
+</t>
+        </is>
+      </c>
+      <c r="Z14" s="1" t="inlineStr"/>
       <c r="AA14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
@@ -2134,307 +2314,297 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11214
-</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n"/>
+          <t xml:space="preserve">101
+</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15912
+</t>
+        </is>
+      </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1276
+          <t xml:space="preserve">1579
 </t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">1055
 </t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">1317
 </t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">81
+          <t xml:space="preserve">524
 </t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">178
+          <t xml:space="preserve">1992
 </t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">368
 </t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">1106
 </t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">1095
 </t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">1307
 </t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">4001
 </t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">922
 </t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">1487
 </t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="S15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">1361
 </t>
         </is>
       </c>
       <c r="T15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
+          <t xml:space="preserve">3318
 </t>
         </is>
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">81
+          <t xml:space="preserve">766
 </t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1260
+          <t xml:space="preserve">1337
 </t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">1207
 </t>
         </is>
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">1425
 </t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">851
+          <t xml:space="preserve">4074
 </t>
         </is>
       </c>
       <c r="Z15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">50
+          <t xml:space="preserve">34
 </t>
         </is>
       </c>
       <c r="AA15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">9
+          <t xml:space="preserve">701
 </t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10
-</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3408
+          <t xml:space="preserve">3182
 </t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1314
+          <t xml:space="preserve">316
 </t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">121
+          <t xml:space="preserve">105
 </t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">1198
 </t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">23
 </t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
-</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">221
 </t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="N16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
-</t>
-        </is>
-      </c>
-      <c r="O16" s="1" t="n"/>
+          <t xml:space="preserve">261
+</t>
+        </is>
+      </c>
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">300
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="S16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">300
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="T16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">710
+          <t xml:space="preserve">664
 </t>
         </is>
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
-</t>
-        </is>
-      </c>
-      <c r="V16" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">250
-</t>
-        </is>
-      </c>
-      <c r="W16" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">219
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">153
+</t>
+        </is>
+      </c>
+      <c r="V16" s="1" t="inlineStr"/>
+      <c r="W16" s="1" t="inlineStr"/>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">766
-</t>
-        </is>
-      </c>
-      <c r="Z16" s="1" t="inlineStr"/>
+          <t xml:space="preserve">815
+</t>
+        </is>
+      </c>
+      <c r="Z16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69
+</t>
+        </is>
+      </c>
       <c r="AA16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">1107
 </t>
         </is>
       </c>
@@ -2442,156 +2612,71 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="inlineStr"/>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1542
-</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">997
-</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr"/>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">545
-</t>
-        </is>
-      </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">921
-</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">116
-</t>
-        </is>
-      </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">197
-</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">164
-</t>
-        </is>
-      </c>
-      <c r="L17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28029
-</t>
-        </is>
-      </c>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14900
-</t>
-        </is>
-      </c>
-      <c r="P17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="Q17" s="1" t="inlineStr"/>
-      <c r="R17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18957
-</t>
-        </is>
-      </c>
+      <c r="O17" s="1" t="n"/>
+      <c r="P17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
       <c r="S17" s="1" t="n"/>
-      <c r="T17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3310
-</t>
-        </is>
-      </c>
-      <c r="U17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">763
-</t>
-        </is>
-      </c>
-      <c r="V17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1365
-</t>
-        </is>
-      </c>
-      <c r="W17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1904
-</t>
-        </is>
-      </c>
+      <c r="T17" s="1" t="n"/>
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="n"/>
+      <c r="W17" s="1" t="n"/>
       <c r="X17" s="1" t="n"/>
-      <c r="Y17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3861
-</t>
-        </is>
-      </c>
-      <c r="Z17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">423
-</t>
-        </is>
-      </c>
-      <c r="AA17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">101
-</t>
-        </is>
-      </c>
+      <c r="Y17" s="1" t="n"/>
+      <c r="Z17" s="1" t="n"/>
+      <c r="AA17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1107
-</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n"/>
+          <t xml:space="preserve">27
+</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11
+</t>
+        </is>
+      </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3062
+          <t xml:space="preserve">3680
 </t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">308
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
@@ -2603,301 +2688,341 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">1204
 </t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">125
 </t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
-</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="n"/>
+          <t xml:space="preserve">163
+</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
-</t>
-        </is>
-      </c>
-      <c r="P18" s="1" t="inlineStr"/>
+          <t xml:space="preserve">923
+</t>
+        </is>
+      </c>
+      <c r="P18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">06
+</t>
+        </is>
+      </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">305
+          <t xml:space="preserve">7121
 </t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="S18" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">277
+</t>
+        </is>
+      </c>
+      <c r="T18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">580
+</t>
+        </is>
+      </c>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200
+</t>
+        </is>
+      </c>
+      <c r="V18" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">285
 </t>
         </is>
       </c>
-      <c r="T18" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">668
-</t>
-        </is>
-      </c>
-      <c r="U18" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">153
-</t>
-        </is>
-      </c>
-      <c r="V18" s="1" t="inlineStr"/>
-      <c r="W18" s="1" t="inlineStr"/>
+      <c r="W18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">244
+</t>
+        </is>
+      </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
-</t>
-        </is>
-      </c>
-      <c r="Y18" s="1" t="inlineStr"/>
-      <c r="Z18" s="1" t="inlineStr"/>
+          <t xml:space="preserve">279
+</t>
+        </is>
+      </c>
+      <c r="Y18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">717
+</t>
+        </is>
+      </c>
+      <c r="Z18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110
+</t>
+        </is>
+      </c>
       <c r="AA18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3009
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2656
+</t>
+        </is>
+      </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
+          <t xml:space="preserve">304
 </t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1230
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
-      </c>
-      <c r="J19" s="1" t="inlineStr"/>
+          <t xml:space="preserve">116
+</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr"/>
+          <t xml:space="preserve">12
+</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223
+</t>
+        </is>
+      </c>
       <c r="M19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="N19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">976
 </t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="T19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">737
 </t>
         </is>
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
-</t>
-        </is>
-      </c>
-      <c r="W19" s="1" t="inlineStr"/>
+          <t xml:space="preserve">243
+</t>
+        </is>
+      </c>
+      <c r="W19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">229
+</t>
+        </is>
+      </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
-      <c r="Y19" s="1" t="inlineStr"/>
-      <c r="Z19" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">86
-</t>
-        </is>
-      </c>
-      <c r="AA19" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
+      <c r="Y19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">290
+</t>
+        </is>
+      </c>
+      <c r="Z19" s="1" t="n"/>
+      <c r="AA19" s="1" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12
-</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n"/>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13
+</t>
+        </is>
+      </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3325
+          <t xml:space="preserve">3659
 </t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
-</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">205
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1314
+</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">963
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">1145
 </t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">42
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="N20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
@@ -2909,624 +3034,659 @@
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1817
+          <t xml:space="preserve">307
 </t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
-</t>
-        </is>
-      </c>
-      <c r="T20" s="1" t="inlineStr"/>
+          <t xml:space="preserve">275
+</t>
+        </is>
+      </c>
+      <c r="T20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">623
+</t>
+        </is>
+      </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">166
 </t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1257
-</t>
-        </is>
-      </c>
-      <c r="W20" s="1" t="inlineStr"/>
+          <t xml:space="preserve">1273
+</t>
+        </is>
+      </c>
+      <c r="W20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1238
+</t>
+        </is>
+      </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">292
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">885
+          <t xml:space="preserve">18750
 </t>
         </is>
       </c>
       <c r="Z20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
-</t>
-        </is>
-      </c>
-      <c r="AA20" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">91
+</t>
+        </is>
+      </c>
+      <c r="AA20" s="1" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18
-</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n"/>
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2990
+          <t xml:space="preserve">3408
 </t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">1307
 </t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">95
 </t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="inlineStr"/>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34
+</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">816
+</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">215
+</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">256
+</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
+      <c r="P21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">306
+</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">262
+</t>
+        </is>
+      </c>
+      <c r="S21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">312
+</t>
+        </is>
+      </c>
+      <c r="T21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">712
+</t>
+        </is>
+      </c>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1126
+</t>
+        </is>
+      </c>
+      <c r="V21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">278
+</t>
+        </is>
+      </c>
+      <c r="W21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">246
+</t>
+        </is>
+      </c>
+      <c r="X21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">289
+</t>
+        </is>
+      </c>
+      <c r="Y21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">723
+</t>
+        </is>
+      </c>
+      <c r="Z21" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">1184
 </t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18
-</t>
-        </is>
-      </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35
-</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">122
-</t>
-        </is>
-      </c>
-      <c r="L21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">198
-</t>
-        </is>
-      </c>
-      <c r="M21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">197
-</t>
-        </is>
-      </c>
-      <c r="N21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">228
-</t>
-        </is>
-      </c>
-      <c r="O21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">279
-</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="S21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">269
-</t>
-        </is>
-      </c>
-      <c r="T21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">716
-</t>
-        </is>
-      </c>
-      <c r="U21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">106
-</t>
-        </is>
-      </c>
-      <c r="V21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1250
-</t>
-        </is>
-      </c>
-      <c r="W21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">228
-</t>
-        </is>
-      </c>
-      <c r="X21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1263
-</t>
-        </is>
-      </c>
-      <c r="Y21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">830
-</t>
-        </is>
-      </c>
-      <c r="Z21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">54
-</t>
-        </is>
-      </c>
-      <c r="AA21" s="1" t="inlineStr"/>
+      <c r="AA21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149
+</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14
-</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3993
+</t>
+        </is>
+      </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">301
+          <t xml:space="preserve">329
 </t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">121
-</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr"/>
+          <t xml:space="preserve">118
+</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
-</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">143
+</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="inlineStr"/>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1189
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="N22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">1247
 </t>
         </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">975
 </t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">000
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">301
+          <t xml:space="preserve">324
 </t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="S22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
-</t>
-        </is>
-      </c>
-      <c r="T22" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">631
-</t>
-        </is>
-      </c>
-      <c r="U22" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">157
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">993
+</t>
+        </is>
+      </c>
+      <c r="T22" s="1" t="n"/>
+      <c r="U22" s="1" t="n"/>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">841
-</t>
-        </is>
-      </c>
-      <c r="Z22" s="1" t="inlineStr"/>
+          <t xml:space="preserve">860
+</t>
+        </is>
+      </c>
+      <c r="Z22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49
+</t>
+        </is>
+      </c>
       <c r="AA22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">15
 </t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr"/>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101
+</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2949
-</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">312
-</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">17396
+</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2590
+          <t xml:space="preserve">1324
 </t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
-</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="inlineStr"/>
+          <t xml:space="preserve">403
+</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1018
+</t>
+        </is>
+      </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">109
 </t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">35
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">01
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1191
+          <t xml:space="preserve">1082
 </t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">1070
 </t>
         </is>
       </c>
       <c r="N23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">0
 </t>
         </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">4894
 </t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">000
+          <t xml:space="preserve">122
 </t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">310
+          <t xml:space="preserve">1557
 </t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="S23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">1468
 </t>
         </is>
       </c>
       <c r="T23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1668
-</t>
-        </is>
-      </c>
-      <c r="U23" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">148
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">3257
+</t>
+        </is>
+      </c>
+      <c r="U23" s="1" t="inlineStr"/>
       <c r="V23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">1344
 </t>
         </is>
       </c>
       <c r="W23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">1203
 </t>
         </is>
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="Y23" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">888
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1408
+</t>
+        </is>
+      </c>
+      <c r="Y23" s="1" t="inlineStr"/>
       <c r="Z23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">33
+          <t xml:space="preserve">6
 </t>
         </is>
       </c>
       <c r="AA23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">701
 </t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3109
+</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">153479
+</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">315
+</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">214
+</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">265
+</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">101
 </t>
         </is>
       </c>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16101
-</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1554
-</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-      <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1882
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">122
 </t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">65
-</t>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr"/>
-      <c r="M24" s="1" t="n"/>
-      <c r="N24" s="1" t="n"/>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">214
+</t>
+        </is>
+      </c>
+      <c r="N24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">254
+</t>
+        </is>
+      </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4940
+          <t xml:space="preserve">979
 </t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1143
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1529
-</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n"/>
-      <c r="S24" s="1" t="n"/>
+          <t xml:space="preserve">311
+</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">856
+</t>
+        </is>
+      </c>
+      <c r="S24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">294
+</t>
+        </is>
+      </c>
       <c r="T24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3200
+          <t xml:space="preserve">651
 </t>
         </is>
       </c>
       <c r="U24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">796
+          <t xml:space="preserve">159
 </t>
         </is>
       </c>
       <c r="V24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">129093
-</t>
-        </is>
-      </c>
-      <c r="W24" s="1" t="n"/>
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
+      <c r="W24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241
+</t>
+        </is>
+      </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1106
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4220
+          <t xml:space="preserve">798
 </t>
         </is>
       </c>
       <c r="Z24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">73
 </t>
         </is>
       </c>
       <c r="AA24" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">7101
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
@@ -3534,298 +3694,293 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2109
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">13220
-</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n"/>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1067
+</t>
+        </is>
+      </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">235
 </t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">119
+          <t xml:space="preserve">57
 </t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
-</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
-      </c>
-      <c r="J25" s="1" t="inlineStr"/>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
       <c r="K25" s="1" t="n"/>
-      <c r="L25" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">197
-</t>
-        </is>
-      </c>
-      <c r="M25" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">196
-</t>
-        </is>
-      </c>
-      <c r="N25" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1227
-</t>
-        </is>
-      </c>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">988
+          <t xml:space="preserve">1970
 </t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr"/>
       <c r="Q25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">306
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="T25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">640
+          <t xml:space="preserve">844
 </t>
         </is>
       </c>
       <c r="U25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">159
-</t>
-        </is>
-      </c>
-      <c r="V25" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">259
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1553
+</t>
+        </is>
+      </c>
+      <c r="V25" s="1" t="inlineStr"/>
       <c r="W25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">844
+          <t xml:space="preserve">877
 </t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
-</t>
-        </is>
-      </c>
-      <c r="AA25" s="1" t="n"/>
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
+      <c r="AA25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">2900
 </t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0111141611
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="F26" s="1" t="n"/>
+          <t xml:space="preserve">206
+</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">231
+</t>
+        </is>
+      </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr"/>
-      <c r="J26" s="1" t="inlineStr"/>
+          <t xml:space="preserve">192
+</t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">1240
 </t>
         </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">74
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="T26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">732
 </t>
         </is>
       </c>
       <c r="U26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">105
 </t>
         </is>
       </c>
       <c r="V26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="W26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">818
 </t>
         </is>
       </c>
       <c r="Z26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">64
 </t>
         </is>
       </c>
       <c r="AA26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n"/>
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3450
+          <t xml:space="preserve">2907
 </t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3117
+          <t xml:space="preserve">12318
 </t>
         </is>
       </c>
@@ -3843,25 +3998,25 @@
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">113
 </t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">44
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
@@ -3873,400 +4028,385 @@
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
+      <c r="M27" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">206
 </t>
         </is>
       </c>
-      <c r="M27" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">204
-</t>
-        </is>
-      </c>
       <c r="N27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="O27" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">980
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">241
+</t>
+        </is>
+      </c>
+      <c r="O27" s="1" t="n"/>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">314
+          <t xml:space="preserve">312
 </t>
         </is>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="T27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">552
+          <t xml:space="preserve">602
 </t>
         </is>
       </c>
       <c r="U27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">181
 </t>
         </is>
       </c>
       <c r="V27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="W27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">743
+          <t xml:space="preserve">726
 </t>
         </is>
       </c>
       <c r="Z27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">13892
+          <t xml:space="preserve">107
 </t>
         </is>
       </c>
       <c r="AA27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18
-</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4182
+          <t xml:space="preserve">2468
 </t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">329
+          <t xml:space="preserve">315
 </t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">1892
 </t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">31
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">152
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="M28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
-</t>
-        </is>
-      </c>
-      <c r="N28" s="1" t="n"/>
+          <t xml:space="preserve">206
+</t>
+        </is>
+      </c>
+      <c r="N28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">239
+</t>
+        </is>
+      </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">953
 </t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">052
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
       <c r="Q28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">9253
 </t>
         </is>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="S28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
-</t>
-        </is>
-      </c>
-      <c r="T28" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">530
-</t>
-        </is>
-      </c>
-      <c r="U28" s="1" t="inlineStr"/>
+          <t xml:space="preserve">280
+</t>
+        </is>
+      </c>
+      <c r="T28" s="1" t="n"/>
+      <c r="U28" s="1" t="n"/>
       <c r="V28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">224
 </t>
         </is>
       </c>
       <c r="W28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
-</t>
-        </is>
-      </c>
-      <c r="X28" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">263
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">213
+</t>
+        </is>
+      </c>
+      <c r="X28" s="1" t="inlineStr"/>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">742
-</t>
-        </is>
-      </c>
-      <c r="Z28" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">43
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">908
+</t>
+        </is>
+      </c>
+      <c r="Z28" s="1" t="inlineStr"/>
       <c r="AA28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20
-</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n"/>
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3100
+</t>
+        </is>
+      </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2823
+          <t xml:space="preserve">2112
 </t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">292
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71
+</t>
+        </is>
+      </c>
+      <c r="J29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22
+</t>
+        </is>
+      </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">388
+</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">213
+</t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
+      <c r="N29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8248
+</t>
+        </is>
+      </c>
+      <c r="O29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">925
+</t>
+        </is>
+      </c>
+      <c r="P29" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">128
 </t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">120
-</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">219
-</t>
-        </is>
-      </c>
-      <c r="M29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">215
-</t>
-        </is>
-      </c>
-      <c r="N29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">254
-</t>
-        </is>
-      </c>
-      <c r="O29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">965
-</t>
-        </is>
-      </c>
-      <c r="P29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09
-</t>
-        </is>
-      </c>
       <c r="Q29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">1358
 </t>
         </is>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="T29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">737
-</t>
-        </is>
-      </c>
-      <c r="U29" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">103
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">794
+</t>
+        </is>
+      </c>
+      <c r="U29" s="1" t="inlineStr"/>
       <c r="V29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">250
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="W29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
-</t>
-        </is>
-      </c>
-      <c r="Z29" s="1" t="inlineStr"/>
+          <t xml:space="preserve">849
+</t>
+        </is>
+      </c>
+      <c r="Z29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52
+</t>
+        </is>
+      </c>
       <c r="AA29" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">1514104
 </t>
         </is>
       </c>
@@ -4274,118 +4414,143 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
-</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13635
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">27
+</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21
+</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1565
-</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="n"/>
+          <t xml:space="preserve">11311
+</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2452
+</t>
+        </is>
+      </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">569
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">922
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
-</t>
-        </is>
-      </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">171
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">23
+</t>
+        </is>
+      </c>
+      <c r="J30" s="1" t="n"/>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">237
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1022
-</t>
-        </is>
-      </c>
-      <c r="M30" s="1" t="n"/>
-      <c r="N30" s="1" t="n"/>
+          <t xml:space="preserve">1201
+</t>
+        </is>
+      </c>
+      <c r="M30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201
+</t>
+        </is>
+      </c>
+      <c r="N30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12325
+</t>
+        </is>
+      </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4895
-</t>
-        </is>
-      </c>
-      <c r="P30" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">23
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
+      <c r="P30" s="1" t="inlineStr"/>
       <c r="Q30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1455
-</t>
-        </is>
-      </c>
-      <c r="R30" s="1" t="n"/>
-      <c r="S30" s="1" t="n"/>
+          <t xml:space="preserve">311
+</t>
+        </is>
+      </c>
+      <c r="R30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="S30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">275
+</t>
+        </is>
+      </c>
       <c r="T30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3445
+          <t xml:space="preserve">610
 </t>
         </is>
       </c>
       <c r="U30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">688
-</t>
-        </is>
-      </c>
-      <c r="V30" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">974
-</t>
-        </is>
-      </c>
-      <c r="W30" s="1" t="n"/>
-      <c r="X30" s="1" t="n"/>
+          <t xml:space="preserve">175
+</t>
+        </is>
+      </c>
+      <c r="V30" s="1" t="inlineStr"/>
+      <c r="W30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">238
+</t>
+        </is>
+      </c>
+      <c r="X30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">272
+</t>
+        </is>
+      </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4115
+          <t xml:space="preserve">7466
 </t>
         </is>
       </c>
       <c r="Z30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">309
+          <t xml:space="preserve">93
 </t>
         </is>
       </c>
       <c r="AA30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
@@ -4394,276 +4559,251 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3107
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2727
+          <t xml:space="preserve">2133
 </t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">313
+          <t xml:space="preserve">292
 </t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1256
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1201
-</t>
-        </is>
-      </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">34
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">96
+</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="inlineStr"/>
+      <c r="J31" s="1" t="n"/>
       <c r="K31" s="1" t="n"/>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="M31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">908
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="N31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">964
 </t>
         </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">979
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">8242
-</t>
-        </is>
-      </c>
-      <c r="S31" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">271
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2846
+</t>
+        </is>
+      </c>
+      <c r="S31" s="1" t="inlineStr"/>
       <c r="T31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">689
+          <t xml:space="preserve">709
 </t>
         </is>
       </c>
       <c r="U31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">138
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="V31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="W31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">231
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
-</t>
-        </is>
-      </c>
-      <c r="Y31" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">823
-</t>
-        </is>
-      </c>
-      <c r="Z31" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="AA31" s="1" t="n"/>
+          <t xml:space="preserve">283
+</t>
+        </is>
+      </c>
+      <c r="Y31" s="1" t="inlineStr"/>
+      <c r="Z31" s="1" t="n"/>
+      <c r="AA31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22
+</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3116
+</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1319
+</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">214
+</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">267
+</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">35
 </t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr"/>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7
-</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">171
-</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">86
-</t>
-        </is>
-      </c>
-      <c r="H32" s="1" t="inlineStr"/>
-      <c r="I32" s="1" t="inlineStr"/>
-      <c r="J32" s="1" t="inlineStr"/>
-      <c r="K32" s="1" t="inlineStr"/>
+      <c r="K32" s="1" t="n"/>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="M32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
-</t>
-        </is>
-      </c>
-      <c r="N32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">256
-</t>
-        </is>
-      </c>
-      <c r="O32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P32" s="1" t="inlineStr"/>
+          <t xml:space="preserve">217
+</t>
+        </is>
+      </c>
+      <c r="N32" s="1" t="n"/>
+      <c r="O32" s="1" t="n"/>
+      <c r="P32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
+</t>
+        </is>
+      </c>
       <c r="Q32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
-</t>
-        </is>
-      </c>
-      <c r="T32" s="1" t="inlineStr"/>
+          <t xml:space="preserve">302
+</t>
+        </is>
+      </c>
+      <c r="T32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">694
+</t>
+        </is>
+      </c>
       <c r="U32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">121
+          <t xml:space="preserve">133
 </t>
         </is>
       </c>
       <c r="V32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="W32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2391
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">811
+          <t xml:space="preserve">8208
 </t>
         </is>
       </c>
       <c r="Z32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">67
+          <t xml:space="preserve">65
 </t>
         </is>
       </c>
       <c r="AA32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">23
 </t>
         </is>
       </c>
@@ -4672,152 +4812,142 @@
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">441
+          <t xml:space="preserve">3534
 </t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1252
+          <t xml:space="preserve">15311
 </t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">1208
 </t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">46
-</t>
-        </is>
-      </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1090
-</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05
-</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">103
 </t>
         </is>
       </c>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">45
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">806
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="N33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">9251
 </t>
         </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">978
 </t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">1311
 </t>
         </is>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">8275
 </t>
         </is>
       </c>
       <c r="T33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">702
+          <t xml:space="preserve">613
 </t>
         </is>
       </c>
       <c r="U33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">50
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="V33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">625
-</t>
-        </is>
-      </c>
-      <c r="Z33" s="1" t="inlineStr"/>
+          <t xml:space="preserve">794
+</t>
+        </is>
+      </c>
+      <c r="Z33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
       <c r="AA33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
@@ -4826,137 +4956,142 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4307
+</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1321
+</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">965
+</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112
+</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">24
 </t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2844
-</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">144
+</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">306
 </t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">191
-</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">249
-</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">115
-</t>
-        </is>
-      </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1178
-</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr"/>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="n"/>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="M34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="N34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">2142
 </t>
         </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">975
 </t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">321
+</t>
+        </is>
+      </c>
+      <c r="R34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">260
+</t>
+        </is>
+      </c>
+      <c r="S34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">297
+</t>
+        </is>
+      </c>
+      <c r="T34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">622
+</t>
+        </is>
+      </c>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="V34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="W34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">246
+</t>
+        </is>
+      </c>
+      <c r="X34" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">283
 </t>
         </is>
       </c>
-      <c r="R34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2248
-</t>
-        </is>
-      </c>
-      <c r="S34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">290
-</t>
-        </is>
-      </c>
-      <c r="T34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">754
-</t>
-        </is>
-      </c>
-      <c r="U34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">94
-</t>
-        </is>
-      </c>
-      <c r="V34" s="1" t="inlineStr"/>
-      <c r="W34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">244
-</t>
-        </is>
-      </c>
-      <c r="X34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2923
-</t>
-        </is>
-      </c>
-      <c r="Y34" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">858
-</t>
-        </is>
-      </c>
+      <c r="Y34" s="1" t="inlineStr"/>
       <c r="Z34" s="1" t="inlineStr"/>
       <c r="AA34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
@@ -4965,427 +5100,347 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1178
+          <t xml:space="preserve">16837
 </t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1286
+          <t xml:space="preserve">1554
 </t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">1020
 </t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">1287
 </t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">75
+          <t xml:space="preserve">534
 </t>
         </is>
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1190
-</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">965
+</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="inlineStr"/>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0
+          <t xml:space="preserve">181
 </t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">356
 </t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">1060
 </t>
         </is>
       </c>
       <c r="M35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">817
+          <t xml:space="preserve">1152
 </t>
         </is>
       </c>
       <c r="N35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">192161
 </t>
         </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1980
+          <t xml:space="preserve">16927
 </t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">17
 </t>
         </is>
       </c>
       <c r="Q35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">1537
 </t>
         </is>
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">1262
 </t>
         </is>
       </c>
       <c r="S35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">843
+          <t xml:space="preserve">1431
 </t>
         </is>
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">948
+          <t xml:space="preserve">2268
 </t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">777
 </t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">1368
 </t>
         </is>
       </c>
       <c r="W35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">1216
 </t>
         </is>
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
-</t>
-        </is>
-      </c>
-      <c r="Y35" s="1" t="inlineStr"/>
-      <c r="Z35" s="1" t="inlineStr"/>
+          <t xml:space="preserve">1024
+</t>
+        </is>
+      </c>
+      <c r="Y35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2982
+</t>
+        </is>
+      </c>
+      <c r="Z35" s="1" t="n"/>
       <c r="AA35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">101
-</t>
-        </is>
-      </c>
+      <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">8264
+          <t xml:space="preserve">3387
 </t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">8429
-</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="n"/>
-      <c r="F36" s="1" t="n"/>
+          <t xml:space="preserve">13118
+</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">204
+</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">257
+</t>
+        </is>
+      </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">429
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">928
-</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr"/>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">120
+</t>
+        </is>
+      </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">92
-</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">179
-</t>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr"/>
-      <c r="M36" s="1" t="n"/>
-      <c r="N36" s="1" t="n"/>
+          <t xml:space="preserve">36
+</t>
+        </is>
+      </c>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">212
+</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
+      <c r="N36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2168
+</t>
+        </is>
+      </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4950
+          <t xml:space="preserve">985
 </t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
+          <t xml:space="preserve">103
 </t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1331
+          <t xml:space="preserve">307
 </t>
         </is>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1279
+          <t xml:space="preserve">852
 </t>
         </is>
       </c>
       <c r="S36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1363
+          <t xml:space="preserve">886
 </t>
         </is>
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3936
+          <t xml:space="preserve">650
 </t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">404
+          <t xml:space="preserve">155
 </t>
         </is>
       </c>
       <c r="V36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">120161
-</t>
-        </is>
-      </c>
-      <c r="W36" s="1" t="n"/>
-      <c r="X36" s="1" t="n"/>
+          <t xml:space="preserve">874
+</t>
+        </is>
+      </c>
+      <c r="W36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">243
+</t>
+        </is>
+      </c>
+      <c r="X36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">285
+</t>
+        </is>
+      </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4160
-</t>
-        </is>
-      </c>
-      <c r="Z36" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="AA36" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">101
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">784
+</t>
+        </is>
+      </c>
+      <c r="Z36" s="1" t="n"/>
+      <c r="AA36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2109
-</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1653
-</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1286
-</t>
-        </is>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">200
-</t>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">243
-</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n"/>
+      <c r="O37" s="1" t="n"/>
+      <c r="P37" s="1" t="n"/>
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="n"/>
+      <c r="S37" s="1" t="n"/>
+      <c r="T37" s="1" t="n"/>
+      <c r="U37" s="1" t="n"/>
+      <c r="V37" s="1" t="n"/>
+      <c r="W37" s="1" t="n"/>
+      <c r="X37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">275
+</t>
+        </is>
+      </c>
+      <c r="Y37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">882
+</t>
+        </is>
+      </c>
+      <c r="Z37" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">86
 </t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1186
-</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12
-</t>
-        </is>
-      </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18
-</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="n"/>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">207
-</t>
-        </is>
-      </c>
-      <c r="M37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="N37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">242
-</t>
-        </is>
-      </c>
-      <c r="O37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">102
-</t>
-        </is>
-      </c>
-      <c r="Q37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">266
-</t>
-        </is>
-      </c>
-      <c r="R37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">236
-</t>
-        </is>
-      </c>
-      <c r="S37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">273
-</t>
-        </is>
-      </c>
-      <c r="T37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">787
-</t>
-        </is>
-      </c>
-      <c r="U37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">81
-</t>
-        </is>
-      </c>
-      <c r="V37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="W37" s="1" t="inlineStr"/>
-      <c r="X37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">260
-</t>
-        </is>
-      </c>
-      <c r="Y37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">832
-</t>
-        </is>
-      </c>
-      <c r="Z37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">56
-</t>
-        </is>
-      </c>
       <c r="AA37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1103
+          <t xml:space="preserve">26
 </t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3626
-</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr"/>
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26
+</t>
+        </is>
+      </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">3325
@@ -5394,105 +5449,135 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">319
 </t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">861
+</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">117
+</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">1193
 </t>
         </is>
       </c>
-      <c r="F38" s="1" t="n"/>
-      <c r="G38" s="1" t="n"/>
-      <c r="H38" s="1" t="n"/>
-      <c r="I38" s="1" t="n"/>
-      <c r="J38" s="1" t="n"/>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">117
+</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30
+</t>
+        </is>
+      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">51
-</t>
-        </is>
-      </c>
-      <c r="L38" s="1" t="n"/>
-      <c r="M38" s="1" t="n"/>
-      <c r="N38" s="1" t="n"/>
+          <t xml:space="preserve">6
+</t>
+        </is>
+      </c>
+      <c r="L38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
+      <c r="M38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809
+</t>
+        </is>
+      </c>
+      <c r="N38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">948
+</t>
+        </is>
+      </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">3109
 </t>
         </is>
       </c>
       <c r="R38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="S38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">898
 </t>
         </is>
       </c>
       <c r="T38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">665
+          <t xml:space="preserve">632
 </t>
         </is>
       </c>
       <c r="U38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">147
+          <t xml:space="preserve">173
 </t>
         </is>
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">2187
 </t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
-</t>
-        </is>
-      </c>
-      <c r="X38" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">272
-</t>
-        </is>
-      </c>
-      <c r="Y38" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">729
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">232
+</t>
+        </is>
+      </c>
+      <c r="X38" s="1" t="n"/>
+      <c r="Y38" s="1" t="n"/>
       <c r="Z38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">1014
 </t>
         </is>
       </c>
       <c r="AA38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
@@ -5501,145 +5586,145 @@
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
-</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2781
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1308
+          <t xml:space="preserve">329
 </t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">250
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1118
+          <t xml:space="preserve">1127
 </t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">35
-</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr"/>
+          <t xml:space="preserve">150
+</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100
+</t>
+        </is>
+      </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">1198
 </t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">809
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="N39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2486
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">978
 </t>
         </is>
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="Q39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">328
 </t>
         </is>
       </c>
       <c r="R39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="S39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">8293
 </t>
         </is>
       </c>
       <c r="T39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">654
+          <t xml:space="preserve">592
 </t>
         </is>
       </c>
       <c r="U39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">152
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
-</t>
-        </is>
-      </c>
-      <c r="Y39" s="1" t="inlineStr"/>
-      <c r="Z39" s="1" t="inlineStr"/>
-      <c r="AA39" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
+      <c r="Y39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">720
+</t>
+        </is>
+      </c>
+      <c r="Z39" s="1" t="n"/>
+      <c r="AA39" s="1" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -5651,130 +5736,135 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2426
+          <t xml:space="preserve">12656
 </t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1296
+          <t xml:space="preserve">1316
 </t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">856
 </t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1194
+          <t xml:space="preserve">0180
 </t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">116
+</t>
+        </is>
+      </c>
+      <c r="K40" s="1" t="inlineStr"/>
       <c r="L40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">809
-</t>
-        </is>
-      </c>
-      <c r="M40" s="1" t="n"/>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
       <c r="N40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1232
-</t>
-        </is>
-      </c>
-      <c r="O40" s="1" t="inlineStr"/>
+          <t xml:space="preserve">1230
+</t>
+        </is>
+      </c>
+      <c r="O40" s="1" t="n"/>
       <c r="P40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">823
 </t>
         </is>
       </c>
       <c r="R40" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">214
+</t>
+        </is>
+      </c>
+      <c r="S40" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">249
 </t>
         </is>
       </c>
-      <c r="S40" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
       <c r="T40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">705
+          <t xml:space="preserve">923
 </t>
         </is>
       </c>
       <c r="U40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">120
+          <t xml:space="preserve">1120
 </t>
         </is>
       </c>
       <c r="V40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1271
+          <t xml:space="preserve">10986
 </t>
         </is>
       </c>
       <c r="W40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">234
 </t>
         </is>
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
-</t>
-        </is>
-      </c>
-      <c r="Y40" s="1" t="inlineStr"/>
+          <t xml:space="preserve">280
+</t>
+        </is>
+      </c>
+      <c r="Y40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">905
+</t>
+        </is>
+      </c>
       <c r="Z40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">67
+          <t xml:space="preserve">829
 </t>
         </is>
       </c>
@@ -5789,142 +5879,132 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2886
-</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1309
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2363
+</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr"/>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1105
+          <t xml:space="preserve">1113
 </t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">1200
 </t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1166
-</t>
-        </is>
-      </c>
-      <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">111
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1107
+</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="n"/>
       <c r="L41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="M41" s="1" t="n"/>
+          <t xml:space="preserve">219
+</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">918
+</t>
+        </is>
+      </c>
       <c r="N41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
-</t>
-        </is>
-      </c>
-      <c r="O41" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1000
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">8960
+</t>
+        </is>
+      </c>
+      <c r="O41" s="1" t="n"/>
       <c r="P41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
-</t>
-        </is>
-      </c>
-      <c r="Q41" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">309
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="Q41" s="1" t="n"/>
       <c r="R41" s="1" t="n"/>
       <c r="S41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1276
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="T41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">620
+          <t xml:space="preserve">977
 </t>
         </is>
       </c>
       <c r="U41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">170
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="V41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">85
 </t>
         </is>
       </c>
       <c r="W41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">247
 </t>
         </is>
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="Z41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
+          <t xml:space="preserve">982
 </t>
         </is>
       </c>
       <c r="AA41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5933,64 +6013,74 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">123116
+          <t xml:space="preserve">3722
 </t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2307
+          <t xml:space="preserve">300
 </t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
-</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr"/>
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">1198
 </t>
         </is>
       </c>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">0116
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">130
+          <t xml:space="preserve">132
 </t>
         </is>
       </c>
       <c r="K42" s="1" t="n"/>
-      <c r="L42" s="1" t="inlineStr"/>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
       <c r="M42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">5111
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="N42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
@@ -6008,79 +6098,144 @@
       </c>
       <c r="Q42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1247
+          <t xml:space="preserve">291
 </t>
         </is>
       </c>
       <c r="R42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">217
+          <t xml:space="preserve">264
 </t>
         </is>
       </c>
       <c r="S42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">3014
 </t>
         </is>
       </c>
       <c r="T42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">770
+          <t xml:space="preserve">756
 </t>
         </is>
       </c>
       <c r="U42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">71
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="V42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">1285
 </t>
         </is>
       </c>
       <c r="W42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
-</t>
-        </is>
-      </c>
-      <c r="X42" s="1" t="inlineStr"/>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
+      <c r="X42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">828
+</t>
+        </is>
+      </c>
       <c r="Y42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">843
-</t>
-        </is>
-      </c>
-      <c r="Z42" s="1" t="n"/>
-      <c r="AA42" s="1" t="inlineStr"/>
+          <t xml:space="preserve">844
+</t>
+        </is>
+      </c>
+      <c r="Z42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60
+</t>
+        </is>
+      </c>
+      <c r="AA42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31
+</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31
-</t>
-        </is>
-      </c>
+      <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
-      <c r="G43" s="1" t="n"/>
-      <c r="H43" s="1" t="n"/>
-      <c r="I43" s="1" t="n"/>
-      <c r="J43" s="1" t="n"/>
-      <c r="K43" s="1" t="n"/>
-      <c r="L43" s="1" t="n"/>
-      <c r="M43" s="1" t="n"/>
-      <c r="N43" s="1" t="n"/>
-      <c r="O43" s="1" t="n"/>
-      <c r="P43" s="1" t="n"/>
-      <c r="Q43" s="1" t="n"/>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">113
+</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1194
+</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1036
+</t>
+        </is>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1223
+</t>
+        </is>
+      </c>
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">823
+</t>
+        </is>
+      </c>
+      <c r="N43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">869
+</t>
+        </is>
+      </c>
+      <c r="O43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
+      <c r="P43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="Q43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">326
+</t>
+        </is>
+      </c>
       <c r="R43" s="1" t="n"/>
       <c r="S43" s="1" t="n"/>
       <c r="T43" s="1" t="n"/>
@@ -6088,95 +6243,150 @@
       <c r="V43" s="1" t="n"/>
       <c r="W43" s="1" t="n"/>
       <c r="X43" s="1" t="n"/>
-      <c r="Y43" s="1" t="n"/>
-      <c r="Z43" s="1" t="n"/>
-      <c r="AA43" s="1" t="n"/>
+      <c r="Y43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5037
+</t>
+        </is>
+      </c>
+      <c r="Z43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3640
+</t>
+        </is>
+      </c>
+      <c r="AA43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1018
+</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
-</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">114534
-</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1327
-</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="n"/>
-      <c r="F44" s="1" t="n"/>
-      <c r="G44" s="1" t="n"/>
-      <c r="H44" s="1" t="n"/>
+          <t xml:space="preserve">081
+</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="inlineStr"/>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1816
+</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2161
+</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1691
+</t>
+        </is>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1142
+</t>
+        </is>
+      </c>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">83
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">11649
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">50
-</t>
-        </is>
-      </c>
-      <c r="L44" s="1" t="n"/>
-      <c r="M44" s="1" t="n"/>
+          <t xml:space="preserve">783
+</t>
+        </is>
+      </c>
+      <c r="L44" s="1" t="inlineStr"/>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1859
+</t>
+        </is>
+      </c>
       <c r="N44" s="1" t="n"/>
-      <c r="O44" s="1" t="n"/>
-      <c r="P44" s="1" t="n"/>
+      <c r="O44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5888
+</t>
+        </is>
+      </c>
+      <c r="P44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1643
+</t>
+        </is>
+      </c>
       <c r="Q44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">12463
+          <t xml:space="preserve">1728
 </t>
         </is>
       </c>
       <c r="R44" s="1" t="n"/>
       <c r="S44" s="1" t="n"/>
-      <c r="T44" s="1" t="n"/>
-      <c r="U44" s="1" t="n"/>
-      <c r="V44" s="1" t="n"/>
+      <c r="T44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">122500
+</t>
+        </is>
+      </c>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">114
+</t>
+        </is>
+      </c>
+      <c r="V44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
       <c r="W44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">785
+          <t xml:space="preserve">839
 </t>
         </is>
       </c>
       <c r="Z44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">77
+          <t xml:space="preserve">67
 </t>
         </is>
       </c>
       <c r="AA44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">1107
 </t>
         </is>
       </c>
@@ -6185,144 +6395,119 @@
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">31028
 </t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2907
+          <t xml:space="preserve">2376
 </t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">1317
 </t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1187
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">167
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="J45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
-</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr"/>
+          <t xml:space="preserve">31
+</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="n"/>
       <c r="L45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">808
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="M45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">2010
 </t>
         </is>
       </c>
       <c r="N45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">984
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="R45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="S45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="T45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="U45" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="V45" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="W45" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="X45" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">750
+</t>
+        </is>
+      </c>
+      <c r="U45" s="1" t="n"/>
+      <c r="V45" s="1" t="n"/>
+      <c r="W45" s="1" t="n"/>
+      <c r="X45" s="1" t="n"/>
       <c r="Y45" s="1" t="n"/>
-      <c r="Z45" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
+      <c r="Z45" s="1" t="n"/>
       <c r="AA45" s="1" t="n"/>
     </row>
     <row r="46">
@@ -6330,110 +6515,90 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">85678
+          <t xml:space="preserve">99904
 </t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">9234
+          <t xml:space="preserve">9214
 </t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">6050
+          <t xml:space="preserve">6363
 </t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">7642
+          <t xml:space="preserve">8039
 </t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">3194
+          <t xml:space="preserve">3351
 </t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">5597
-</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr"/>
+          <t xml:space="preserve">5982
+</t>
+        </is>
+      </c>
+      <c r="I46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1663
+</t>
+        </is>
+      </c>
       <c r="J46" s="1" t="n"/>
       <c r="K46" s="1" t="n"/>
-      <c r="L46" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12011
-</t>
-        </is>
-      </c>
+      <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">11146
-</t>
-        </is>
-      </c>
-      <c r="N46" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7197
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">6524
+</t>
+        </is>
+      </c>
+      <c r="N46" s="1" t="n"/>
       <c r="O46" s="1" t="n"/>
       <c r="P46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
-</t>
-        </is>
-      </c>
-      <c r="Q46" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8858
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">114
+</t>
+        </is>
+      </c>
+      <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">7359
-</t>
-        </is>
-      </c>
-      <c r="S46" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8301
-</t>
-        </is>
-      </c>
-      <c r="T46" s="1" t="n"/>
-      <c r="U46" s="1" t="n"/>
-      <c r="V46" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7869
-</t>
-        </is>
-      </c>
-      <c r="W46" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7063
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">22679
+</t>
+        </is>
+      </c>
+      <c r="S46" s="1" t="n"/>
+      <c r="T46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91681
+</t>
+        </is>
+      </c>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2238
+</t>
+        </is>
+      </c>
+      <c r="V46" s="1" t="n"/>
+      <c r="W46" s="1" t="n"/>
       <c r="X46" s="1" t="n"/>
-      <c r="Y46" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">719417
-</t>
-        </is>
-      </c>
+      <c r="Y46" s="1" t="n"/>
       <c r="Z46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2078
+          <t xml:space="preserve">21982
 </t>
         </is>
       </c>
@@ -6449,69 +6614,69 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">2856
+          <t xml:space="preserve">3191
 </t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">308
+          <t xml:space="preserve">1313
 </t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">1108
 </t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
-</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="n"/>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1008
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121
+</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="n"/>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">715
-</t>
-        </is>
-      </c>
-      <c r="L47" s="1" t="n"/>
-      <c r="M47" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">105
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">4
+</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6580
+</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="n"/>
       <c r="N47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="O47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">982
+          <t xml:space="preserve">983
 </t>
         </is>
       </c>
@@ -6523,67 +6688,62 @@
       </c>
       <c r="Q47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">295
+          <t xml:space="preserve">296
 </t>
         </is>
       </c>
       <c r="R47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="S47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">277
+          <t xml:space="preserve">283
 </t>
         </is>
       </c>
       <c r="T47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">679
+          <t xml:space="preserve">696
 </t>
         </is>
       </c>
       <c r="U47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1240
+          <t xml:space="preserve">137
 </t>
         </is>
       </c>
       <c r="V47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="W47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">239
 </t>
         </is>
       </c>
       <c r="X47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">274
-</t>
-        </is>
-      </c>
-      <c r="Y47" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">805
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">280
+</t>
+        </is>
+      </c>
+      <c r="Y47" s="1" t="inlineStr"/>
       <c r="Z47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">69
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="AA47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1102
+          <t xml:space="preserve">1108
 </t>
         </is>
       </c>
@@ -6591,85 +6751,45 @@
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
+      <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="n"/>
       <c r="F48" s="1" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="1" t="n"/>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">119
-</t>
-        </is>
-      </c>
+      <c r="I48" s="1" t="n"/>
       <c r="J48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">33
+          <t xml:space="preserve">37
 </t>
         </is>
       </c>
       <c r="K48" s="1" t="n"/>
-      <c r="L48" s="1" t="n"/>
-      <c r="M48" s="1" t="n"/>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2188
+</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8110
+</t>
+        </is>
+      </c>
       <c r="N48" s="1" t="n"/>
       <c r="O48" s="1" t="n"/>
       <c r="P48" s="1" t="n"/>
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
-      <c r="S48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="T48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="U48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="V48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="W48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="X48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="Y48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
-      <c r="Z48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
+      <c r="S48" s="1" t="n"/>
+      <c r="T48" s="1" t="n"/>
+      <c r="U48" s="1" t="n"/>
+      <c r="V48" s="1" t="n"/>
+      <c r="W48" s="1" t="n"/>
+      <c r="X48" s="1" t="n"/>
+      <c r="Y48" s="1" t="n"/>
+      <c r="Z48" s="1" t="n"/>
       <c r="AA48" s="1" t="n"/>
     </row>
   </sheetData>

--- a/src/output/Top_Excel_with_OCR_Results.xlsx
+++ b/src/output/Top_Excel_with_OCR_Results.xlsx
@@ -629,16 +629,21 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1862
+</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">317
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">169
+          <t xml:space="preserve">900
 </t>
         </is>
       </c>
@@ -650,103 +655,124 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">148
+          <t xml:space="preserve">878
 </t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">153
+          <t xml:space="preserve">1182
 </t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr"/>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99
+</t>
+        </is>
+      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
+          <t xml:space="preserve">834
 </t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">306
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="n"/>
+          <t xml:space="preserve">241
+</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">45
+          <t xml:space="preserve">1689
 </t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">1122
 </t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t xml:space="preserve">252
+</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">899
-</t>
-        </is>
-      </c>
-      <c r="X4" s="2" t="n"/>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="X4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">262
+</t>
+        </is>
+      </c>
       <c r="Y4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">762
-</t>
-        </is>
-      </c>
-      <c r="Z4" s="2" t="n"/>
+          <t xml:space="preserve">8118
+</t>
+        </is>
+      </c>
+      <c r="Z4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>1</t>
@@ -759,123 +785,150 @@
           <t>2</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n"/>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4035
+</t>
+        </is>
+      </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">144
 </t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">173
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">325
 </t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">55
 </t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12620
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
-</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="n"/>
+          <t xml:space="preserve">286
+</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">927
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
-</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="n"/>
+          <t xml:space="preserve">254
+</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">278
+</t>
+        </is>
+      </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">702
+          <t xml:space="preserve">1566
 </t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t xml:space="preserve">212
+</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t xml:space="preserve">272
+</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="n"/>
+          <t xml:space="preserve">240
+</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1278
+</t>
+        </is>
+      </c>
       <c r="Y5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">68
-</t>
-        </is>
-      </c>
-      <c r="Z5" s="2" t="n"/>
+          <t xml:space="preserve">770
+</t>
+        </is>
+      </c>
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82
+</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2</t>
@@ -890,132 +943,147 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 5
+          <t xml:space="preserve">4223
 </t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
+          <t xml:space="preserve">342
 </t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">170
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">152
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">172
 </t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">27
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">44
+          <t xml:space="preserve">72
 </t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">914
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
-</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="n"/>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">327
+</t>
+        </is>
+      </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">257
 </t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">507
-</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="n"/>
+          <t xml:space="preserve">552
+</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">207
+</t>
+        </is>
+      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">237
 </t>
         </is>
       </c>
       <c r="X6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">742
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="Y6" s="2" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="Z6" s="2" t="n"/>
+          <t xml:space="preserve">664
+</t>
+        </is>
+      </c>
+      <c r="Z6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>3</t>
@@ -1028,74 +1096,81 @@
           <t>4</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n"/>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43351</t>
+        </is>
+      </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2305
+          <t xml:space="preserve">347
 </t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">178
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
-</t>
+          <t>433</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">158
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">203
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">175
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="n"/>
+          <t xml:space="preserve">2351
+</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">00
@@ -1104,59 +1179,64 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">342
 </t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">506
 </t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">295
 </t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">862
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="Y7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="Z7" s="2" t="n"/>
+          <t xml:space="preserve">662
+</t>
+        </is>
+      </c>
+      <c r="Z7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">138
+</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>4</t>
@@ -1169,128 +1249,148 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2990
+</t>
+        </is>
+      </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
-</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">806
 </t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">276
 </t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">140
 </t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">173
+          <t xml:space="preserve">11190
 </t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">309
 </t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
-</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="n"/>
+          <t xml:space="preserve">206
+</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2409
+</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">965
+</t>
+        </is>
+      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>011</t>
+          <t xml:space="preserve">108
+</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t xml:space="preserve">1214
+</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1662
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">816
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">592
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="Y8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
-      </c>
-      <c r="Z8" s="2" t="n"/>
+          <t xml:space="preserve">974
+</t>
+        </is>
+      </c>
+      <c r="Z8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">06
+</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>5</t>
@@ -1303,132 +1403,145 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17835
+</t>
+        </is>
+      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1474
+          <t xml:space="preserve">1648
 </t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1129
-</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n"/>
+          <t xml:space="preserve">969
+</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1308
+</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">578
+          <t xml:space="preserve">679
 </t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">578
+          <t xml:space="preserve">894
 </t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">165
 </t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">442
+          <t xml:space="preserve">309
 </t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">926
+          <t xml:space="preserve">1002
 </t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">996
 </t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t xml:space="preserve">1158
+</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">18945
+</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1909
+          <t xml:space="preserve">1496
 </t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3186
+          <t xml:space="preserve">1357
 </t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">488
+          <t xml:space="preserve">2299
 </t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">810
 </t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1108
+          <t xml:space="preserve">1328
 </t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">1168
 </t>
         </is>
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3822
+          <t xml:space="preserve">1335
 </t>
         </is>
       </c>
       <c r="Y9" s="2" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="Z9" s="2" t="n"/>
+          <t xml:space="preserve">3888
+</t>
+        </is>
+      </c>
+      <c r="Z9" s="2" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -1441,129 +1554,145 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3567
+</t>
+        </is>
+      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t xml:space="preserve">330
+</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">876
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">237
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">136
 </t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">33
 </t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">72
+          <t xml:space="preserve">55
 </t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">726
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15912
-</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="n"/>
+          <t xml:space="preserve">1232
+</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">989
+</t>
+        </is>
+      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1223
+          <t xml:space="preserve">8244
 </t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">642
+          <t xml:space="preserve">660
 </t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1238
+          <t xml:space="preserve">162
 </t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">266
 </t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1269
+          <t xml:space="preserve">1234
 </t>
         </is>
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="Y10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
-</t>
-        </is>
-      </c>
-      <c r="Z10" s="2" t="n"/>
+          <t xml:space="preserve">778
+</t>
+        </is>
+      </c>
+      <c r="Z10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">416
+</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -1576,129 +1705,150 @@
           <t>6</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2656
+</t>
+        </is>
+      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">295
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t xml:space="preserve">103
+</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1810
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">111
+          <t xml:space="preserve">1866
 </t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">97
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr"/>
+          <t xml:space="preserve">212
+</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr"/>
+          <t xml:space="preserve">11245
+</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0923
+</t>
+        </is>
+      </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">284
+          <t xml:space="preserve">1299
 </t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">1255
 </t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">1298
 </t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">612
+          <t xml:space="preserve">706
 </t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">1124
 </t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">1271
 </t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">8249
 </t>
         </is>
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">301
 </t>
         </is>
       </c>
       <c r="Y11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">62
-</t>
-        </is>
-      </c>
-      <c r="Z11" s="2" t="n"/>
+          <t xml:space="preserve">840
+</t>
+        </is>
+      </c>
+      <c r="Z11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83
+</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>6</t>
@@ -1711,126 +1861,150 @@
           <t>7</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3471
+</t>
+        </is>
+      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">890
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">92
 </t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">175
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">27
 </t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">1446
 </t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">153
-</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="n"/>
+          <t xml:space="preserve">230
+</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">279
+</t>
+        </is>
+      </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>902</t>
+          <t xml:space="preserve">975
+</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">05
+</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t xml:space="preserve">318
+</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
-</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="n"/>
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">578
+</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">1246
 </t>
         </is>
       </c>
       <c r="X12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">812
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">45
-</t>
-        </is>
-      </c>
-      <c r="Z12" s="2" t="n"/>
+          <t xml:space="preserve">767
+</t>
+        </is>
+      </c>
+      <c r="Z12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57
+</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>7</t>
@@ -1843,129 +2017,150 @@
           <t>8</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14286
+</t>
+        </is>
+      </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">328
 </t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">183
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">227
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t xml:space="preserve">199
+</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">33
 </t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">27
+          <t xml:space="preserve">160
 </t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">2221
 </t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="n"/>
+          <t xml:space="preserve">261
+</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">246
+</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">258
 </t>
         </is>
       </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">229
-</t>
-        </is>
-      </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="n"/>
+          <t xml:space="preserve">527
+</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">233
+</t>
+        </is>
+      </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">1280
 </t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">812
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="Y13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">52
-</t>
-        </is>
-      </c>
-      <c r="Z13" s="2" t="n"/>
+          <t xml:space="preserve">776
+</t>
+        </is>
+      </c>
+      <c r="Z13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>8</t>
@@ -1978,139 +2173,150 @@
           <t>9</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1903
+</t>
+        </is>
+      </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">3207
 </t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">203
+</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">521
+</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111
+</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">224
+</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">221
+</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">264
+</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">973
+</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">107
+</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">824
+</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">211
+</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">242
 </t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">83
-</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1165
-</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27
-</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">822
-</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9043
-</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">912
-</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">222
-</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">224
-</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">262
-</t>
-        </is>
-      </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1252
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="X14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1832
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="Y14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z14" s="2" t="n"/>
+          <t xml:space="preserve">960
+</t>
+        </is>
+      </c>
+      <c r="Z14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85
+</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>9</t>
@@ -2123,129 +2329,150 @@
           <t>10</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3596
+</t>
+        </is>
+      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">325
 </t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">2088
 </t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">225
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t xml:space="preserve">1117
+</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">14196
 </t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">27
+          <t xml:space="preserve">39
 </t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
-</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="n"/>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">258
+</t>
+        </is>
+      </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">919
+          <t xml:space="preserve">1800
 </t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">814
+          <t xml:space="preserve">320
 </t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">234
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
-</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="n"/>
+          <t xml:space="preserve">617
+</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">182
+</t>
+        </is>
+      </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">514
-</t>
-        </is>
-      </c>
-      <c r="Z15" s="2" t="n"/>
+          <t xml:space="preserve">731
+</t>
+        </is>
+      </c>
+      <c r="Z15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09
+</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>10</t>
@@ -2258,131 +2485,135 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15912
+</t>
+        </is>
+      </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">0
 </t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">136
+          <t xml:space="preserve">1055
 </t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1166
+          <t xml:space="preserve">1317
 </t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">97
+          <t xml:space="preserve">524
 </t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">815
+          <t xml:space="preserve">992
 </t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t xml:space="preserve">115
+</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">143
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9513
-</t>
-        </is>
-      </c>
+      <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">1095
 </t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9532
+          <t xml:space="preserve">1307
 </t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t xml:space="preserve">4901
+</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">92
 </t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t xml:space="preserve">1487
+</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t xml:space="preserve">1361
+</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">91
+          <t xml:space="preserve">3318
 </t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18417
+          <t xml:space="preserve">766
 </t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">1337
 </t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">1207
 </t>
         </is>
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">852
+          <t xml:space="preserve">1425
 </t>
         </is>
       </c>
       <c r="Y16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">03
-</t>
-        </is>
-      </c>
-      <c r="Z16" s="2" t="n"/>
+          <t xml:space="preserve">4074
+</t>
+        </is>
+      </c>
+      <c r="Z16" s="2" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -2395,120 +2626,149 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3182
+</t>
+        </is>
+      </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t xml:space="preserve">316
+</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">323
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4811
+          <t xml:space="preserve">105
 </t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">125
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+          <t xml:space="preserve">23
+</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">368
+</t>
+        </is>
+      </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">1106
 </t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">946
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr"/>
+          <t xml:space="preserve">1104
+</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">297
+</t>
+        </is>
+      </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1266
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t xml:space="preserve">2722
+</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve">664
+</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">153
 </t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7043</t>
+          <t xml:space="preserve">267
+</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1246
-</t>
+          <t>941</t>
         </is>
       </c>
       <c r="X17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8083
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="Y17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1510
-</t>
-        </is>
-      </c>
-      <c r="Z17" s="2" t="n"/>
+          <t xml:space="preserve">815
+</t>
+        </is>
+      </c>
+      <c r="Z17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69
+</t>
+        </is>
+      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -2521,134 +2781,145 @@
           <t>11</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3680
+</t>
+        </is>
+      </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">8267
 </t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">109
 </t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr"/>
+          <t xml:space="preserve">143
+</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">221
+</t>
+        </is>
+      </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t xml:space="preserve">923
+</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2518
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">225
+          <t xml:space="preserve">8252
 </t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">277
 </t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">649
+          <t xml:space="preserve">580
 </t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">8200
 </t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">822
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="Y18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
-</t>
-        </is>
-      </c>
-      <c r="Z18" s="2" t="n"/>
+          <t xml:space="preserve">717
+</t>
+        </is>
+      </c>
+      <c r="Z18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">115
+</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>11</t>
@@ -2661,127 +2932,150 @@
           <t>12</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2656
+</t>
+        </is>
+      </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t xml:space="preserve">304
+</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">138
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">164
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
-</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr"/>
+          <t xml:space="preserve">220
+</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9812
+          <t xml:space="preserve">976
 </t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve">299
+</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">942
-</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="n"/>
+          <t xml:space="preserve">737
+</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110
+</t>
+        </is>
+      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">1243
 </t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t xml:space="preserve">229
+</t>
         </is>
       </c>
       <c r="X19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">816
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="Y19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="Z19" s="2" t="n"/>
+          <t xml:space="preserve">290
+</t>
+        </is>
+      </c>
+      <c r="Z19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93
+</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>12</t>
@@ -2794,140 +3088,150 @@
           <t>13</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3659
+</t>
+        </is>
+      </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">305
+          <t xml:space="preserve">314
 </t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">237
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">145
 </t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">090
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">999
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">307
 </t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">227
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">623
 </t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">166
 </t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">828
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">132
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="Z20" s="2" t="n"/>
+          <t xml:space="preserve">2750
+</t>
+        </is>
+      </c>
+      <c r="Z20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91
+</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>13</t>
@@ -2940,134 +3244,149 @@
           <t>14</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3408
+</t>
+        </is>
+      </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">307
 </t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2392
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">95
 </t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">34
 </t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">8216
 </t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1801
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12922
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">922
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">306
 </t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t xml:space="preserve">262
+</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">312
 </t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">882
-</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="n"/>
+          <t xml:space="preserve">712
+</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">126
+</t>
+        </is>
+      </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">903
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="Y21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
-</t>
-        </is>
-      </c>
-      <c r="Z21" s="2" t="n"/>
+          <t xml:space="preserve">7723
+</t>
+        </is>
+      </c>
+      <c r="Z21" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>14</t>
@@ -3080,140 +3399,150 @@
           <t>15</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3993
+</t>
+        </is>
+      </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">329
 </t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">98
+          <t xml:space="preserve">43
 </t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">77
 </t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">929
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1999
+          <t xml:space="preserve">247
 </t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">925
 </t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1210
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">324
 </t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">250
+          <t xml:space="preserve">893
 </t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">962
+          <t xml:space="preserve">605
 </t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1084
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1262
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">802
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="Y22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">97
-</t>
-        </is>
-      </c>
-      <c r="Z22" s="2" t="n"/>
+          <t xml:space="preserve">860
+</t>
+        </is>
+      </c>
+      <c r="Z22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149
+</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>15</t>
@@ -3226,137 +3555,126 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17396
+</t>
+        </is>
+      </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1948
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
-</t>
+          <t>037</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1192
+          <t xml:space="preserve">1324
 </t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">579
-</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>688</t>
-        </is>
-      </c>
+          <t xml:space="preserve">503
+</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">76
+          <t xml:space="preserve">109
 </t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">140
-</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">939
-</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">186
-</t>
-        </is>
-      </c>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr"/>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">911
 </t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">014
+          <t xml:space="preserve">14894
 </t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t xml:space="preserve">1557
+</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1199
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5360
+          <t xml:space="preserve">11468
 </t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">379
+          <t xml:space="preserve">3957
 </t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">69
-</t>
+          <t>7924</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1026
+          <t xml:space="preserve">1344
 </t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1974
-</t>
-        </is>
-      </c>
-      <c r="X23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4278
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1203
+</t>
+        </is>
+      </c>
+      <c r="X23" s="2" t="inlineStr"/>
       <c r="Y23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">127
-</t>
-        </is>
-      </c>
-      <c r="Z23" s="2" t="n"/>
+          <t>39404</t>
+        </is>
+      </c>
+      <c r="Z23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">267
+</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -3369,130 +3687,148 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3439
+</t>
+        </is>
+      </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">225
+          <t xml:space="preserve">315
 </t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">168
+          <t xml:space="preserve">1018
 </t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
-</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr"/>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">988
+          <t xml:space="preserve">1082
 </t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
-</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr"/>
+          <t xml:space="preserve">1070
+</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1268
+</t>
+        </is>
+      </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3912
+          <t xml:space="preserve">979
 </t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">856
 </t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">712
+          <t xml:space="preserve">651
 </t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">68
+          <t xml:space="preserve">159
 </t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">852
-</t>
+          <t>14081</t>
         </is>
       </c>
       <c r="Y24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="Z24" s="2" t="n"/>
+          <t xml:space="preserve">798
+</t>
+        </is>
+      </c>
+      <c r="Z24" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -3505,132 +3841,129 @@
           <t>16</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1067
+</t>
+        </is>
+      </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">263
+</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">235
 </t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">111
+          <t xml:space="preserve">57
 </t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
-</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">204
+</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve">08
+</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t xml:space="preserve">214
+</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5922
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">21461
 </t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">762
+          <t xml:space="preserve">844
 </t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">59
+          <t xml:space="preserve">53
 </t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="W25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">245
-</t>
-        </is>
-      </c>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr"/>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">862
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="Y25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
-</t>
-        </is>
-      </c>
-      <c r="Z25" s="2" t="n"/>
+          <t xml:space="preserve">877
+</t>
+        </is>
+      </c>
+      <c r="Z25" s="2" t="inlineStr"/>
       <c r="AA25" t="inlineStr">
         <is>
           <t>16</t>
@@ -3643,66 +3976,70 @@
           <t>17</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">900
+</t>
+        </is>
+      </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">231
 </t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">167
-</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05
+</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr"/>
+          <t>9240</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">268
+</t>
+        </is>
+      </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">12970
 </t>
         </is>
       </c>
@@ -3714,58 +4051,64 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">266
+          <t xml:space="preserve">243
 </t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">632
+          <t xml:space="preserve">920
 </t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">802
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="Y26" s="2" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="Z26" s="2" t="n"/>
+          <t xml:space="preserve">918
+</t>
+        </is>
+      </c>
+      <c r="Z26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38
+</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>17</t>
@@ -3778,22 +4121,27 @@
           <t>18</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3220
+</t>
+        </is>
+      </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">305
 </t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
@@ -3805,100 +4153,113 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">158
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">09
 </t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
-</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">34
+</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="n"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">1228
 </t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
-</t>
-        </is>
-      </c>
-      <c r="P27" s="2" t="n"/>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2393
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t xml:space="preserve">890
+</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">732
 </t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2349
+          <t xml:space="preserve">105
 </t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X27" s="2" t="inlineStr">
         <is>
-          <t>532</t>
+          <t xml:space="preserve">271
+</t>
         </is>
       </c>
       <c r="Y27" s="2" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="Z27" s="2" t="n"/>
+          <t xml:space="preserve">818
+</t>
+        </is>
+      </c>
+      <c r="Z27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24
+</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>18</t>
@@ -3911,137 +4272,150 @@
           <t>19</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2907
+</t>
+        </is>
+      </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">327
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">158
+          <t xml:space="preserve">1113
 </t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">140
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">32
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">57
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">03
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">168
+          <t xml:space="preserve">1209
 </t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19584
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1922
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">49
+</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t xml:space="preserve">312
+</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">145
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">602
 </t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">181
 </t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">124
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">862
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="Y28" s="2" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Z28" s="2" t="n"/>
+          <t xml:space="preserve">726
+</t>
+        </is>
+      </c>
+      <c r="Z28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64
+</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>19</t>
@@ -4054,133 +4428,149 @@
           <t>20</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>34681</t>
+        </is>
+      </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">301
+          <t xml:space="preserve">315
 </t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">170
+          <t xml:space="preserve">1189
 </t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">26
 </t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t xml:space="preserve">281
+</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">26511
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1902
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4516
-</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr"/>
+          <t xml:space="preserve">1953
+</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11
+</t>
+        </is>
+      </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1129
+          <t xml:space="preserve">8253
 </t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1264
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">280
+</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">442
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1282
+          <t xml:space="preserve">142
 </t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1042
+          <t xml:space="preserve">224
 </t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3826
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="Y29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">324
-</t>
-        </is>
-      </c>
-      <c r="Z29" s="2" t="n"/>
+          <t xml:space="preserve">908
+</t>
+        </is>
+      </c>
+      <c r="Z29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>20</t>
@@ -4193,126 +4583,143 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n"/>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10562
+</t>
+        </is>
+      </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1494
+          <t xml:space="preserve">1452
 </t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">896
+          <t xml:space="preserve">032
 </t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t xml:space="preserve">1242
+</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>588</t>
+          <t xml:space="preserve">420
+</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>896</t>
+          <t xml:space="preserve">1192
+</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t xml:space="preserve">16
+</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t xml:space="preserve">1110
+</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t xml:space="preserve">388
+</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">928
+          <t xml:space="preserve">1065
 </t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">11592
 </t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t xml:space="preserve">239
+</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
+          <t xml:space="preserve">4876
 </t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">28
+</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">11858
 </t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t xml:space="preserve">1207
+</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9222
-</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="n"/>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">828
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1409
+</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3968
+</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr"/>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">1261
 </t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
-</t>
+          <t>361</t>
         </is>
       </c>
       <c r="Y30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
-</t>
-        </is>
-      </c>
-      <c r="Z30" s="2" t="n"/>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="Z30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -4325,121 +4732,145 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2112
+</t>
+        </is>
+      </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">131
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">71
 </t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t xml:space="preserve">22
+</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
-</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n"/>
+          <t xml:space="preserve">213
+</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="O31" s="2" t="n"/>
+          <t xml:space="preserve">1239
+</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">975
+</t>
+        </is>
+      </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t xml:space="preserve">06
+</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t xml:space="preserve">272
+</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>226444</t>
+          <t xml:space="preserve">241
+</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">642
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">155
+          <t xml:space="preserve">794
 </t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">1159
 </t>
         </is>
       </c>
       <c r="X31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">1358
 </t>
         </is>
       </c>
       <c r="Y31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
-</t>
-        </is>
-      </c>
-      <c r="Z31" s="2" t="n"/>
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="Z31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58
+</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -4452,122 +4883,149 @@
           <t>21</t>
         </is>
       </c>
-      <c r="C32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3847
+</t>
+        </is>
+      </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t xml:space="preserve">311
+</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0353</t>
+          <t xml:space="preserve">193
+</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>9521</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t xml:space="preserve">193
+</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t xml:space="preserve">114
+</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t xml:space="preserve">1146
+</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>725</t>
+          <t xml:space="preserve">00
+</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">1201
 </t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11289
-</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="n"/>
+          <t xml:space="preserve">201
+</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8248
+</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve">00
+</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">8249
 </t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">225
 </t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">353
+          <t xml:space="preserve">610
 </t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">175
 </t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">974
 </t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">274
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">803
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">68
-</t>
-        </is>
-      </c>
-      <c r="Z32" s="2" t="n"/>
+          <t xml:space="preserve">746
+</t>
+        </is>
+      </c>
+      <c r="Z32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52
+</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>21</t>
@@ -4580,130 +5038,147 @@
           <t>22</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2133
+</t>
+        </is>
+      </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">139326
+          <t xml:space="preserve">292
 </t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">146
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">1180
 </t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
-</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">516
 </t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">148
 </t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1818
-</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n"/>
+          <t xml:space="preserve">215
+</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10214
+</t>
+        </is>
+      </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1903
-</t>
-        </is>
-      </c>
-      <c r="O33" s="2" t="n"/>
+          <t xml:space="preserve">1235
+</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">2846
 </t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
-</t>
+          <t>9821</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">48
+          <t xml:space="preserve">709
 </t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">863
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">67
-</t>
-        </is>
-      </c>
-      <c r="Z33" s="2" t="n"/>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="Z33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93
+</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>22</t>
@@ -4716,135 +5191,145 @@
           <t>23</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n"/>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3116
+</t>
+        </is>
+      </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1321
+          <t xml:space="preserve">319
 </t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">2114
 </t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">1267
+</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105
+</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
+</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35
+</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
+</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">217
+</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8254
+</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11990
+</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
+</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">205
+</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">258
 </t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">127
-</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35
-</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">195
-</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1114
-</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1812
-</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9282
-</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">162
-</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">302
 </t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">682
+          <t xml:space="preserve">694
 </t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">90
+          <t xml:space="preserve">133
 </t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">622
 </t>
         </is>
       </c>
       <c r="X34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">628
+          <t xml:space="preserve">283
 </t>
         </is>
       </c>
       <c r="Y34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">132
-</t>
-        </is>
-      </c>
-      <c r="Z34" s="2" t="n"/>
+          <t xml:space="preserve">820
+</t>
+        </is>
+      </c>
+      <c r="Z34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45
+</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>23</t>
@@ -4857,126 +5342,141 @@
           <t>24</t>
         </is>
       </c>
-      <c r="C35" s="2" t="n"/>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3534
+</t>
+        </is>
+      </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">304
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1894
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">274
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">103
 </t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">40
 </t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">131
-</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n"/>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">213
+</t>
+        </is>
+      </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1922
-</t>
-        </is>
-      </c>
-      <c r="O35" s="2" t="n"/>
+          <t xml:space="preserve">259
+</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">978
+</t>
+        </is>
+      </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">1311
 </t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2218
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">336
+          <t xml:space="preserve">613
 </t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">270
+          <t xml:space="preserve">2466
 </t>
         </is>
       </c>
       <c r="X35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">65
 </t>
         </is>
       </c>
       <c r="Y35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">778
 </t>
         </is>
       </c>
@@ -4993,128 +5493,149 @@
           <t>25</t>
         </is>
       </c>
-      <c r="C36" s="2" t="n"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4307
+</t>
+        </is>
+      </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">156
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4542</t>
+          <t xml:space="preserve">198
+</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">918
+          <t xml:space="preserve">144
 </t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">306
 </t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
-</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="inlineStr"/>
+          <t xml:space="preserve">2410
+</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">207
+</t>
+        </is>
+      </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">180902
-</t>
-        </is>
-      </c>
-      <c r="O36" s="2" t="n"/>
+          <t xml:space="preserve">251
+</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9725
+</t>
+        </is>
+      </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">312
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1306
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t xml:space="preserve">297
+</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">442
+          <t xml:space="preserve">622
 </t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1246
+</t>
+        </is>
+      </c>
+      <c r="X36" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">283
 </t>
         </is>
       </c>
-      <c r="V36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1160
-</t>
-        </is>
-      </c>
-      <c r="W36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1299
-</t>
-        </is>
-      </c>
-      <c r="X36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9676
-</t>
-        </is>
-      </c>
       <c r="Y36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">372
-</t>
-        </is>
-      </c>
-      <c r="Z36" s="2" t="n"/>
+          <t xml:space="preserve">720
+</t>
+        </is>
+      </c>
+      <c r="Z36" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>25</t>
@@ -5127,127 +5648,140 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C37" s="2" t="n"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16937
+</t>
+        </is>
+      </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1615
+          <t xml:space="preserve">1554
 </t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3929
+          <t xml:space="preserve">1020
 </t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1269
-</t>
+          <t>18871</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">694
+          <t xml:space="preserve">534
 </t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>846344</t>
+          <t xml:space="preserve">965
+</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t xml:space="preserve">101
+</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t xml:space="preserve">4
+</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">499
+          <t xml:space="preserve">356
 </t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">1060
 </t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">14418
+          <t xml:space="preserve">10159
 </t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">09502
-</t>
-        </is>
-      </c>
-      <c r="O37" s="2" t="n"/>
+          <t xml:space="preserve">242
+</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11927
+</t>
+        </is>
+      </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1428
+          <t xml:space="preserve">17
 </t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t xml:space="preserve">1537
+</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">1262
 </t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">11431
 </t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">3248
 </t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1249
+          <t xml:space="preserve">777
 </t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">1368
 </t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">1216
 </t>
         </is>
       </c>
       <c r="X37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">132
-</t>
+          <t>72</t>
         </is>
       </c>
       <c r="Y37" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t xml:space="preserve">982
+</t>
         </is>
       </c>
       <c r="Z37" s="2" t="n"/>
@@ -5263,128 +5797,145 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C38" s="2" t="n"/>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3387
+</t>
+        </is>
+      </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t xml:space="preserve">310
+</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">257
 </t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">91
+          <t xml:space="preserve">181
 </t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9811
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>883384</t>
+          <t xml:space="preserve">210
+</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">902
+          <t xml:space="preserve">985
 </t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
+          <t xml:space="preserve">03
 </t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
-</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="n"/>
+          <t xml:space="preserve">207
+</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">252
+</t>
+        </is>
+      </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">650
 </t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">155
 </t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">874
 </t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">243
 </t>
         </is>
       </c>
       <c r="X38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8216
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="Y38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
-</t>
-        </is>
-      </c>
-      <c r="Z38" s="2" t="n"/>
+          <t xml:space="preserve">784
+</t>
+        </is>
+      </c>
+      <c r="Z38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -5397,119 +5948,150 @@
           <t>26</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n"/>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3325
+</t>
+        </is>
+      </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">328
+          <t xml:space="preserve">319
 </t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">125
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2516
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">141
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
+          <t xml:space="preserve">1193
+</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36
+</t>
+        </is>
+      </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">612
+          <t xml:space="preserve">6
 </t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
-</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n"/>
+          <t xml:space="preserve">280
+</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9209
+</t>
+        </is>
+      </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
-</t>
-        </is>
-      </c>
-      <c r="O39" s="2" t="n"/>
+          <t xml:space="preserve">2148
+</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">719
 </t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">898
 </t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">612
+          <t xml:space="preserve">632
 </t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">93
+          <t xml:space="preserve">173
 </t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">247
 </t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">725
+          <t xml:space="preserve">276
 </t>
         </is>
       </c>
       <c r="Y39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1944
-</t>
-        </is>
-      </c>
-      <c r="Z39" s="2" t="n"/>
+          <t xml:space="preserve">982
+</t>
+        </is>
+      </c>
+      <c r="Z39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">386
+</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>26</t>
@@ -5522,135 +6104,150 @@
           <t>27</t>
         </is>
       </c>
-      <c r="C40" s="2" t="n"/>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4537
+</t>
+        </is>
+      </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">925
+          <t xml:space="preserve">329
 </t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">183
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">854
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">142
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">1182
 </t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">127
 </t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">510
+          <t xml:space="preserve">30
 </t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">010
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1948
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1983
-</t>
-        </is>
-      </c>
-      <c r="O40" s="2" t="n"/>
+          <t xml:space="preserve">9468
+</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">978
+</t>
+        </is>
+      </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">328
 </t>
         </is>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">260
+</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8293
+</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">592
+</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">278
 </t>
         </is>
       </c>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">592
-</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">472
-</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">869
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="Y40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">126
-</t>
-        </is>
-      </c>
-      <c r="Z40" s="2" t="n"/>
+          <t xml:space="preserve">220
+</t>
+        </is>
+      </c>
+      <c r="Z40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>27</t>
@@ -5663,130 +6260,149 @@
           <t>28</t>
         </is>
       </c>
-      <c r="C41" s="2" t="n"/>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2656
+</t>
+        </is>
+      </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">316
 </t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">8256
 </t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">128
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">1180
 </t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1185
+          <t xml:space="preserve">50
 </t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
-</t>
+          <t>434</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="n"/>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
-</t>
-        </is>
-      </c>
-      <c r="O41" s="2" t="n"/>
+          <t xml:space="preserve">9286
+</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">312
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">270
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">90
+          <t xml:space="preserve">923
 </t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">8281
 </t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">234
 </t>
         </is>
       </c>
       <c r="X41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">823
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="Y41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="Z41" s="2" t="n"/>
+          <t xml:space="preserve">905
+</t>
+        </is>
+      </c>
+      <c r="Z41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89
+</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>28</t>
@@ -5799,76 +6415,81 @@
           <t>29</t>
         </is>
       </c>
-      <c r="C42" s="2" t="n"/>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2363
+</t>
+        </is>
+      </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">324
+          <t xml:space="preserve">1316
 </t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">125
+          <t xml:space="preserve">113
 </t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1728
+          <t xml:space="preserve">1200
 </t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">901
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">9218
 </t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19221
+          <t xml:space="preserve">830
 </t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">1990
 </t>
         </is>
       </c>
@@ -5880,39 +6501,64 @@
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">148
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">820
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
-</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="n"/>
+          <t xml:space="preserve">893
+</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">977
+</t>
+        </is>
+      </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">70
-</t>
-        </is>
-      </c>
-      <c r="V42" s="2" t="n"/>
-      <c r="W42" s="2" t="n"/>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">859
+</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">235
+</t>
+        </is>
+      </c>
       <c r="X42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">51
-</t>
-        </is>
-      </c>
-      <c r="Y42" s="2" t="n"/>
-      <c r="Z42" s="2" t="n"/>
+          <t xml:space="preserve">282
+</t>
+        </is>
+      </c>
+      <c r="Y42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">906
+</t>
+        </is>
+      </c>
+      <c r="Z42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29
+</t>
+        </is>
+      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>29</t>
@@ -5927,97 +6573,147 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">3722
 </t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">300
 </t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
-</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr"/>
+          <t xml:space="preserve">857
+</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
+          <t xml:space="preserve">1198
+</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100
+</t>
+        </is>
+      </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1789
-</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="n"/>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">215
+</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">860
+</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">02
 </t>
         </is>
       </c>
-      <c r="Q43" s="2" t="n"/>
-      <c r="R43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">291
+</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">255
+</t>
+        </is>
+      </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">304
 </t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3819
+          <t xml:space="preserve">756
 </t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">953
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">957
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">963
+          <t xml:space="preserve">847
 </t>
         </is>
       </c>
       <c r="X43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9272
-</t>
+          <t>91</t>
         </is>
       </c>
       <c r="Y43" s="2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z43" s="2" t="n"/>
+          <t xml:space="preserve">780
+</t>
+        </is>
+      </c>
+      <c r="Z43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>30</t>
@@ -6030,118 +6726,150 @@
           <t>31</t>
         </is>
       </c>
-      <c r="C44" s="2" t="n"/>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3659
+</t>
+        </is>
+      </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1293
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">146
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">547
+          <t xml:space="preserve">113
 </t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t xml:space="preserve">194
+</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t xml:space="preserve">19
+</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">156
+          <t xml:space="preserve">137
 </t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">85
-</t>
-        </is>
-      </c>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223
+</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">823
+</t>
+        </is>
+      </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">13663
-</t>
-        </is>
-      </c>
-      <c r="O44" s="2" t="n"/>
+          <t xml:space="preserve">956
+</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1069
+          <t xml:space="preserve">800
 </t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">916
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1029
+          <t xml:space="preserve">264
 </t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">21213
-</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="n"/>
+          <t xml:space="preserve">304
+</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">620
+</t>
+        </is>
+      </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">186
+</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">885
+</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
+      <c r="X44" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">228
 </t>
         </is>
       </c>
-      <c r="V44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="W44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
-      <c r="X44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">822
-</t>
-        </is>
-      </c>
       <c r="Y44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">54
-</t>
-        </is>
-      </c>
-      <c r="Z44" s="2" t="n"/>
+          <t xml:space="preserve">844
+</t>
+        </is>
+      </c>
+      <c r="Z44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60
+</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>31</t>
@@ -6154,99 +6882,129 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n"/>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">208
+</t>
+        </is>
+      </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">323
+          <t xml:space="preserve">19016
 </t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">1216
 </t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">1561
 </t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">137
-</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">23
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">691
+</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t xml:space="preserve">36
+</t>
         </is>
       </c>
       <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
+      <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="N45" s="2" t="inlineStr"/>
+          <t xml:space="preserve">18259
+</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">983
+          <t xml:space="preserve">59838
 </t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="n"/>
+          <t xml:space="preserve">13
+</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1728
+</t>
+        </is>
+      </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
-</t>
+          <t>297</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">602
-</t>
-        </is>
-      </c>
-      <c r="T45" s="2" t="n"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">98
-</t>
-        </is>
-      </c>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
+          <t xml:space="preserve">258
+</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1449
+</t>
+        </is>
+      </c>
       <c r="X45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">55
-</t>
-        </is>
-      </c>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="Y45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5037
+</t>
+        </is>
+      </c>
+      <c r="Z45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80
+</t>
+        </is>
+      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -6259,74 +7017,145 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2376
+</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">317
+</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
+          <t xml:space="preserve">115
+</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">191
+</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
+</t>
+        </is>
+      </c>
       <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">211
+</t>
+        </is>
+      </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
-</t>
-        </is>
-      </c>
-      <c r="O46" s="2" t="n"/>
+          <t xml:space="preserve">848
+</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">02
 </t>
         </is>
       </c>
-      <c r="Q46" s="2" t="n"/>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
-</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr"/>
-      <c r="T46" s="2" t="n"/>
-      <c r="U46" s="2" t="n"/>
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">290
+</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">750
+</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">114
+</t>
+        </is>
+      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8299
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3088
-</t>
-        </is>
-      </c>
-      <c r="X46" s="2" t="n"/>
+          <t xml:space="preserve">2141
+</t>
+        </is>
+      </c>
+      <c r="X46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
       <c r="Y46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1501
-</t>
-        </is>
-      </c>
-      <c r="Z46" s="2" t="n"/>
+          <t xml:space="preserve">239
+</t>
+        </is>
+      </c>
+      <c r="Z46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57
+</t>
+        </is>
+      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -6337,6 +7166,12 @@
       <c r="B47" t="inlineStr">
         <is>
           <t>Tot.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31
+</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">

--- a/src/output/Top_Excel_with_OCR_Results.xlsx
+++ b/src/output/Top_Excel_with_OCR_Results.xlsx
@@ -629,147 +629,110 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1862
-</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">900
-</t>
-        </is>
-      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">878
+          <t xml:space="preserve">024
 </t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1182
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">99
-</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">202
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">834
+          <t xml:space="preserve">23
 </t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">170
 </t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">276
+</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1689
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1122
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
+          <t>122</t>
         </is>
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
-</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="Y4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8118
+          <t xml:space="preserve">761
 </t>
         </is>
       </c>
       <c r="Z4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">2086
 </t>
         </is>
       </c>
@@ -785,150 +748,110 @@
           <t>2</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4035
-</t>
-        </is>
-      </c>
+      <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">326
+          <t xml:space="preserve">322
 </t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">168
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">325
-</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">55
-</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">8014
 </t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">1674
 </t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">326
-</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">254
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">958
+</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537
+</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8816
+</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">242
+</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">278
 </t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1566
-</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">272
-</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">240
-</t>
-        </is>
-      </c>
-      <c r="X5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1278
-</t>
-        </is>
-      </c>
       <c r="Y5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">770
-</t>
-        </is>
-      </c>
-      <c r="Z5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">82
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">8290
+</t>
+        </is>
+      </c>
+      <c r="Z5" s="2" t="n"/>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2</t>
@@ -943,147 +866,137 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4223
+          <t xml:space="preserve">2512
 </t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">342
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">154
+          <t xml:space="preserve">176
 </t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">72
-</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">82
+</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">814
 </t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">6958
 </t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">1011
 </t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">327
+          <t xml:space="preserve">7268
 </t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">835
+</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">761
+</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1824
+</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">257
 </t>
         </is>
       </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">286
-</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">552
-</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">207
-</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">237
-</t>
-        </is>
-      </c>
-      <c r="X6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">261
-</t>
-        </is>
-      </c>
       <c r="Y6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">664
-</t>
-        </is>
-      </c>
-      <c r="Z6" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t xml:space="preserve">122
+</t>
+        </is>
+      </c>
+      <c r="Z6" s="2" t="n"/>
       <c r="AA6" t="inlineStr">
         <is>
           <t>3</t>
@@ -1098,142 +1011,140 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43351</t>
+          <t xml:space="preserve">4898
+</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">347
+          <t xml:space="preserve">230
 </t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">270
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">154
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t xml:space="preserve">10
+</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t xml:space="preserve">218
+</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2351
-</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1000
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">128
+</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">342
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">0246
 </t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">264
+</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">560
+</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">206
+</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">268
+</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">236
+</t>
+        </is>
+      </c>
+      <c r="X7" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">271
 </t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">506
-</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">295
-</t>
-        </is>
-      </c>
-      <c r="W7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">244
-</t>
-        </is>
-      </c>
-      <c r="X7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">273
-</t>
-        </is>
-      </c>
       <c r="Y7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">662
+          <t xml:space="preserve">1770
 </t>
         </is>
       </c>
       <c r="Z7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">138
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
@@ -1249,148 +1160,139 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2990
-</t>
-        </is>
-      </c>
+      <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t xml:space="preserve">224
+</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">806
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">229
 </t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">140
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11190
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">129
 </t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve">59
+</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">309
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2409
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">965
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1214
-</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">1260
 </t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">156
 </t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">2846
 </t>
         </is>
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="Y8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">974
-</t>
-        </is>
-      </c>
-      <c r="Z8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="Z8" s="2" t="n"/>
       <c r="AA8" t="inlineStr">
         <is>
           <t>5</t>
@@ -1405,143 +1307,131 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">17835
+          <t xml:space="preserve">190689
 </t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1648
+          <t xml:space="preserve">155
 </t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">969
+          <t xml:space="preserve">1012
 </t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1308
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">679
+          <t xml:space="preserve">538
 </t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">894
+          <t xml:space="preserve">926
 </t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">165
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
-</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">309
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">187
+</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1002
+          <t xml:space="preserve">1033
 </t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">996
+          <t xml:space="preserve">1037
 </t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1158
+          <t xml:space="preserve">1550
 </t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18945
+          <t xml:space="preserve">22850
 </t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
-</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1496
+          <t xml:space="preserve">1497
 </t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">1229
 </t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1357
+          <t xml:space="preserve">1377
 </t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2299
+          <t xml:space="preserve">2297
 </t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">810
-</t>
+          <t>252</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1328
+          <t xml:space="preserve">1331
 </t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">1121
+</t>
+        </is>
+      </c>
+      <c r="X9" s="2" t="n"/>
+      <c r="Y9" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">1168
 </t>
         </is>
       </c>
-      <c r="X9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1335
-</t>
-        </is>
-      </c>
-      <c r="Y9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3888
-</t>
-        </is>
-      </c>
-      <c r="Z9" s="2" t="inlineStr"/>
+      <c r="Z9" s="2" t="n"/>
       <c r="AA9" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -1556,80 +1446,80 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3567
+          <t xml:space="preserve">8818
 </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">330
+          <t xml:space="preserve">310
 </t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">902
 </t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">136
+          <t xml:space="preserve">1284
 </t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">33
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">55
+          <t xml:space="preserve">37
 </t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">9207
 </t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1232
+          <t xml:space="preserve">1248
 </t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">989
+          <t xml:space="preserve">1981
 </t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
@@ -1641,25 +1531,25 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8244
+          <t xml:space="preserve">0116
 </t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">660
+          <t xml:space="preserve">659
 </t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">151
 </t>
         </is>
       </c>
@@ -1671,25 +1561,25 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1234
+          <t xml:space="preserve">9821
 </t>
         </is>
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">929
 </t>
         </is>
       </c>
       <c r="Y10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
+          <t xml:space="preserve">111
 </t>
         </is>
       </c>
       <c r="Z10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">416
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
@@ -1707,145 +1597,138 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2656
+          <t xml:space="preserve">428
 </t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">382
 </t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">1148
 </t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">171
 </t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1866
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">828
+          <t xml:space="preserve">65
 </t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">907
 </t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11245
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">52202
+</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0923
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1299
-</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1255
+          <t xml:space="preserve">851
 </t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1298
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">706
+          <t xml:space="preserve">686
 </t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1124
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1271
+          <t xml:space="preserve">300
 </t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8249
-</t>
+          <t>264</t>
         </is>
       </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">301
+          <t xml:space="preserve">1282
 </t>
         </is>
       </c>
       <c r="Y11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">840
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">83
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
@@ -1863,145 +1746,133 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3471
-</t>
+          <t>274451</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">965
 </t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">92
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">178
 </t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">27
-</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1446
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
-</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">10900
 </t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
+          <t xml:space="preserve">19120
 </t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">339
 </t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">578
+          <t xml:space="preserve">1925
 </t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1246
-</t>
-        </is>
-      </c>
-      <c r="X12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">238
+</t>
+        </is>
+      </c>
+      <c r="X12" s="2" t="inlineStr"/>
       <c r="Y12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">767
+          <t xml:space="preserve">850
 </t>
         </is>
       </c>
       <c r="Z12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">57
+          <t xml:space="preserve">50
 </t>
         </is>
       </c>
@@ -2019,145 +1890,138 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">14286
+          <t xml:space="preserve">12682
 </t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">328
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">966
-</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">124
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">33
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">160
-</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">828
+</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2221
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">970
 </t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">326
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">248
+</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">284
+</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1692
+</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">126
+</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">246
 </t>
         </is>
       </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">258
-</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">527
-</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">233
-</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1280
-</t>
-        </is>
-      </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
-</t>
+          <t>2416</t>
         </is>
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">313
 </t>
         </is>
       </c>
       <c r="Y13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">776
+          <t xml:space="preserve">951
 </t>
         </is>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
@@ -2175,145 +2039,144 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1903
+          <t xml:space="preserve">3523
 </t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3207
+          <t xml:space="preserve">342
 </t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">190
 </t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">122
 </t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">203
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">521
+          <t xml:space="preserve">92
 </t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">111
+          <t xml:space="preserve">77
 </t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
+          <t xml:space="preserve">1994
 </t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">518
 </t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">973
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">107
+          <t xml:space="preserve">62
 </t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">824
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">890
+          <t xml:space="preserve">130
 </t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">156
+</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">260
+</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1251
+</t>
+        </is>
+      </c>
+      <c r="X14" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">830
+</t>
+        </is>
+      </c>
+      <c r="Z14" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">29
-</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">220
-</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
-      <c r="X14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">255
-</t>
-        </is>
-      </c>
-      <c r="Y14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">960
-</t>
-        </is>
-      </c>
-      <c r="Z14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">85
 </t>
         </is>
       </c>
@@ -2331,145 +2194,134 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3596
-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">325
+          <t xml:space="preserve">310
 </t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2088
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">1957
 </t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1117
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">14196
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
-</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">259
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">148
+</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">258
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">205
+</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr"/>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1800
+          <t xml:space="preserve">960
 </t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">320
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">250
 </t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">892
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">617
+          <t xml:space="preserve">8650
 </t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">253
 </t>
         </is>
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">1524
 </t>
         </is>
       </c>
       <c r="Y15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">731
+          <t xml:space="preserve">85
 </t>
         </is>
       </c>
       <c r="Z15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
@@ -2487,133 +2339,142 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15912
-</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">0
+          <t xml:space="preserve">1598
 </t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1055
+          <t xml:space="preserve">981
 </t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1317
+          <t xml:space="preserve">1289
 </t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">524
+          <t xml:space="preserve">6817
 </t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">992
+          <t xml:space="preserve">918
 </t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">824
 </t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
-</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
+          <t xml:space="preserve">229
+</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2189
+</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021
+</t>
+        </is>
+      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1095
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1307
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4901
-</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">92
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">21060
+</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1487
+          <t xml:space="preserve">156
 </t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">121
 </t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1361
+          <t xml:space="preserve">1466
 </t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3318
+          <t xml:space="preserve">3413
 </t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">766
+          <t xml:space="preserve">736
 </t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1337
+          <t xml:space="preserve">1331
 </t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1207
+          <t xml:space="preserve">1246
 </t>
         </is>
       </c>
       <c r="X16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1425
+          <t xml:space="preserve">1305
 </t>
         </is>
       </c>
       <c r="Y16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4074
-</t>
-        </is>
-      </c>
-      <c r="Z16" s="2" t="inlineStr"/>
+          <t xml:space="preserve">872
+</t>
+        </is>
+      </c>
+      <c r="Z16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -2628,144 +2489,138 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3182
-</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">316
+          <t xml:space="preserve">320
 </t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">1921
 </t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">1258
 </t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
+          <t xml:space="preserve">146
 </t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">368
-</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1106
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
-</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">261
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2001
+</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">972
 </t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1104
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2722
+          <t xml:space="preserve">2293
 </t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">664
+          <t xml:space="preserve">1683
 </t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">153
+          <t xml:space="preserve">1142
 </t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">981
 </t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>941</t>
+          <t xml:space="preserve">19119
+</t>
         </is>
       </c>
       <c r="X17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">317
 </t>
         </is>
       </c>
       <c r="Y17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">815
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="Z17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">69
+          <t xml:space="preserve">978
 </t>
         </is>
       </c>
@@ -2783,143 +2638,131 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3680
+          <t xml:space="preserve">1986
 </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
+          <t xml:space="preserve">835
 </t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">138
 </t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8267
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">109
+          <t xml:space="preserve">1211
 </t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">27
 </t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">143
-</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10
+</t>
+        </is>
+      </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
-</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">923
+          <t xml:space="preserve">960
 </t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
+          <t xml:space="preserve">3321
 </t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8252
+          <t xml:space="preserve">812057
 </t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">277
-</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">580
-</t>
-        </is>
-      </c>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr"/>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8200
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="X18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="Y18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">717
-</t>
-        </is>
-      </c>
-      <c r="Z18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">115
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">850
+</t>
+        </is>
+      </c>
+      <c r="Z18" s="2" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
           <t>11</t>
@@ -2934,145 +2777,135 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2656
+          <t xml:space="preserve">154060
 </t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">304
+          <t xml:space="preserve">250
 </t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">82
+          <t xml:space="preserve">114
 </t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
-</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">121
+</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">221
 </t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">58
 </t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">976
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">016
+</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr"/>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">2216
 </t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">737
+          <t xml:space="preserve">920
 </t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
+          <t xml:space="preserve">122
 </t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1243
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="X19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">328
 </t>
         </is>
       </c>
       <c r="Y19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">951
 </t>
         </is>
       </c>
       <c r="Z19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">93
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
@@ -3090,73 +2923,73 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3659
+          <t xml:space="preserve">2166
 </t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">314
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">192
+</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">255
+</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">126
+</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1765
+</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149
+</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">387
+</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">215
 </t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">99
-</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">145
-</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">112
-</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">223
-</t>
-        </is>
-      </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">19296
 </t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
@@ -3168,67 +3001,66 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
-</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">309
 </t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">623
+          <t xml:space="preserve">690
 </t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">138
 </t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">2684
 </t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="Y20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2750
+          <t xml:space="preserve">820
 </t>
         </is>
       </c>
       <c r="Z20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">91
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
@@ -3246,145 +3078,133 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3408
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">810
 </t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">95
+          <t xml:space="preserve">21110
 </t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">34
-</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">142
+</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8216
+          <t xml:space="preserve">902
 </t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
-</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
+          <t xml:space="preserve">261
+</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">960
+</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7021
+</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">861
+</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">152
+</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">256
 </t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">306
-</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">262
-</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">312
-</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">712
-</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">126
-</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="W21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">246
-</t>
-        </is>
-      </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
-</t>
+          <t>955</t>
         </is>
       </c>
       <c r="Y21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">7723
+          <t xml:space="preserve">918
 </t>
         </is>
       </c>
       <c r="Z21" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t xml:space="preserve">68
+</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3399,147 +3219,126 @@
           <t>15</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3993
-</t>
-        </is>
-      </c>
+      <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">329
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">270
-</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">118
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">184
+</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">175
+</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">892
+</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">229
+</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1039
+</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">198
 </t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">43
-</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">77
-</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">247
-</t>
-        </is>
-      </c>
+      <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">925
+          <t xml:space="preserve">0960
 </t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">324
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">893
-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">605
+          <t xml:space="preserve">821
 </t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">1430
 </t>
         </is>
       </c>
       <c r="Y22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">860
+          <t xml:space="preserve">1363
 </t>
         </is>
       </c>
       <c r="Z22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">149
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
@@ -3557,121 +3356,136 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">17396
-</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">1467
 </t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>037</t>
+          <t xml:space="preserve">999
+</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1324
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">503
-</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
+          <t xml:space="preserve">468
+</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">936
+</t>
+        </is>
+      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">109
+          <t xml:space="preserve">13
 </t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr"/>
+          <t xml:space="preserve">1208
+</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">995
+</t>
+        </is>
+      </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">911
-</t>
-        </is>
-      </c>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr"/>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">14894
+          <t xml:space="preserve">4838
 </t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">36
 </t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1557
-</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1281
+          <t xml:space="preserve">1220
 </t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11468
+          <t xml:space="preserve">1410
 </t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3957
+          <t xml:space="preserve">3103
 </t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>7924</t>
+          <t xml:space="preserve">518
+</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1344
+          <t xml:space="preserve">6151
 </t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1203
-</t>
-        </is>
-      </c>
-      <c r="X23" s="2" t="inlineStr"/>
+          <t xml:space="preserve">81
+</t>
+        </is>
+      </c>
+      <c r="X23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">286
+</t>
+        </is>
+      </c>
       <c r="Y23" s="2" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t xml:space="preserve">872
+</t>
         </is>
       </c>
       <c r="Z23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
@@ -3689,146 +3503,132 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3439
+          <t xml:space="preserve">2254
 </t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">315
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">8101 11
 </t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1018
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">1225
 </t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
+          <t xml:space="preserve">1024
 </t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">135
 </t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1082
-</t>
+          <t>824</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1070
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1268
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">979
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
-</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">311
-</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">856
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2071
+</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="inlineStr"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">294
+          <t xml:space="preserve">889
 </t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">651
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">159
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">253
 </t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>14081</t>
+          <t xml:space="preserve">971
+</t>
         </is>
       </c>
       <c r="Y24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">798
-</t>
-        </is>
-      </c>
-      <c r="Z24" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+          <t xml:space="preserve">840
+</t>
+        </is>
+      </c>
+      <c r="Z24" s="2" t="inlineStr"/>
       <c r="AA24" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -3843,127 +3643,140 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1067
+          <t xml:space="preserve">9473
 </t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">186
+</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">215
+</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">166
+</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">115
+</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82
+</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">206
 </t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">235
-</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">57
-</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">204
-</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">08
-</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
-</t>
+          <t>221</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
-</t>
-        </is>
-      </c>
-      <c r="O25" s="2" t="inlineStr"/>
+          <t xml:space="preserve">2238
+</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">024
 </t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">21461
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">844
+          <t xml:space="preserve">719
 </t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">53
-</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2441</t>
-        </is>
-      </c>
-      <c r="W25" s="2" t="inlineStr"/>
+          <t xml:space="preserve">219
+</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2909
+</t>
+        </is>
+      </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">877
-</t>
-        </is>
-      </c>
-      <c r="Z25" s="2" t="inlineStr"/>
+          <t xml:space="preserve">015
+</t>
+        </is>
+      </c>
+      <c r="Z25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>16</t>
@@ -3978,137 +3791,127 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">900
+          <t xml:space="preserve">23262
 </t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">231
+          <t xml:space="preserve">239
 </t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">141
+          <t xml:space="preserve">50
 </t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
-</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
+          <t xml:space="preserve">107
+</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12914
+</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>9240</t>
+          <t xml:space="preserve">204
+</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">2291
 </t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12970
+          <t xml:space="preserve">0980
 </t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
-</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">215
+</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr"/>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">920
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
-        </is>
-      </c>
-      <c r="X26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">268
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">254
+</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr"/>
       <c r="Y26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">918
-</t>
-        </is>
-      </c>
-      <c r="Z26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38
-</t>
-        </is>
-      </c>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Z26" s="2" t="inlineStr"/>
       <c r="AA26" t="inlineStr">
         <is>
           <t>17</t>
@@ -4123,140 +3926,143 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3220
+          <t xml:space="preserve">1600
 </t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">305
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">1221
 </t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
+          <t xml:space="preserve">17
 </t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">34
+          <t xml:space="preserve">1255
 </t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="n"/>
+          <t xml:space="preserve">297
+</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2108
+</t>
+        </is>
+      </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1228
+          <t xml:space="preserve">158
 </t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">080
 </t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">890
+          <t xml:space="preserve">277
 </t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">732
+          <t xml:space="preserve">725
 </t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">245
 </t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
+          <t>12</t>
         </is>
       </c>
       <c r="X27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
       <c r="Y27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">790
 </t>
         </is>
       </c>
       <c r="Z27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">162
 </t>
         </is>
       </c>
@@ -4274,148 +4080,137 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2907
+          <t xml:space="preserve">2688
 </t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
-</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1113
-</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">191
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">22
+</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">06
+</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">19
 </t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38
-</t>
-        </is>
-      </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1209
+          <t xml:space="preserve">135
 </t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">1202
 </t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">49
+          <t xml:space="preserve">010
 </t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">312
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">225
 </t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">9256
 </t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">602
+          <t xml:space="preserve">808
 </t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">181
+          <t xml:space="preserve">68
 </t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">2128
 </t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">225
 </t>
         </is>
       </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">858
 </t>
         </is>
       </c>
       <c r="Y28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">726
-</t>
-        </is>
-      </c>
-      <c r="Z28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">64
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">221
+</t>
+        </is>
+      </c>
+      <c r="Z28" s="2" t="inlineStr"/>
       <c r="AA28" t="inlineStr">
         <is>
           <t>19</t>
@@ -4430,144 +4225,129 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>34681</t>
+          <t xml:space="preserve">23383
+</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">315
-</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">205
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
-</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">110
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1163
+</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1189
+          <t xml:space="preserve">1626
 </t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
+          <t xml:space="preserve">140
 </t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">58
 </t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">1011
 </t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1953
+          <t xml:space="preserve">1580
 </t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">08
+</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2148
+</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">882
+</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">680
+</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">132
+</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>73214</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1138
+</t>
+        </is>
+      </c>
+      <c r="X29" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">11
 </t>
         </is>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8253
-</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">236
-</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">270
-</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">142
-</t>
-        </is>
-      </c>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">224
-</t>
-        </is>
-      </c>
-      <c r="W29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">246
-</t>
-        </is>
-      </c>
-      <c r="X29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">284
-</t>
-        </is>
-      </c>
       <c r="Y29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">908
+          <t xml:space="preserve">2166
 </t>
         </is>
       </c>
       <c r="Z29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
@@ -4585,138 +4365,131 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10562
+          <t xml:space="preserve">2368
 </t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1452
+          <t xml:space="preserve">1384
 </t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">032
-</t>
+          <t>445</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1242
+          <t xml:space="preserve">237
 </t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">420
-</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1192
-</t>
+          <t>814</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
-</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1110
-</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">388
-</t>
+          <t>332</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1065
-</t>
+          <t>90524</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11592
+          <t xml:space="preserve">995
 </t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">129
 </t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4876
+          <t xml:space="preserve">4820
 </t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">36
 </t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11858
-</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1207
+          <t xml:space="preserve">1178
 </t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1409
+          <t xml:space="preserve">1326
 </t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3968
-</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr"/>
+          <t xml:space="preserve">8784
+</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1261
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="X30" s="2" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1228
+</t>
+        </is>
+      </c>
+      <c r="X30" s="2" t="n"/>
       <c r="Y30" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t xml:space="preserve">183
+</t>
         </is>
       </c>
       <c r="Z30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
@@ -4732,142 +4505,114 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2112
-</t>
-        </is>
-      </c>
+      <c r="C31" s="2" t="n"/>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">977
 </t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">188
+</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
-</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">966
+          <t xml:space="preserve">171
 </t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">71
+          <t xml:space="preserve">1818
 </t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
-</t>
+          <t>842</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
+      <c r="L31" s="2" t="n"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1239
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
+          <t xml:space="preserve">866
 </t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">1117
 </t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
-</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">970
+</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
-</t>
+          <t>24</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">794
+          <t xml:space="preserve">787
 </t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">89
+          <t xml:space="preserve">911
 </t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1159
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="X31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1358
+          <t xml:space="preserve">319
 </t>
         </is>
       </c>
       <c r="Y31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">850
 </t>
         </is>
       </c>
       <c r="Z31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">58
+          <t xml:space="preserve">56
 </t>
         </is>
       </c>
@@ -4885,144 +4630,122 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3847
-</t>
+          <t>4330</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>9521</t>
+          <t xml:space="preserve">256
+</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">1140
 </t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1146
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">178
+</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">1258
 </t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1201
-</t>
+          <t>491</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
-</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8248
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">150
+</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
-</t>
-        </is>
-      </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">862
+</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr"/>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">323
 </t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8249
+          <t xml:space="preserve">253
 </t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">225
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">610
+          <t xml:space="preserve">580
 </t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">175
+          <t xml:space="preserve">806
 </t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">974
+          <t xml:space="preserve">230
 </t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="X32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
-</t>
+          <t>957</t>
         </is>
       </c>
       <c r="Y32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">746
+          <t xml:space="preserve">910
 </t>
         </is>
       </c>
       <c r="Z32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">52
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
@@ -5040,13 +4763,13 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2133
+          <t xml:space="preserve">6413
 </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">292
+          <t xml:space="preserve">230
 </t>
         </is>
       </c>
@@ -5058,54 +4781,55 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">813
 </t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">32
 </t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1180
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t xml:space="preserve">203 8
+</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">516
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">148
+          <t xml:space="preserve">5 55
 </t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10214
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1235
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
@@ -5117,65 +4841,61 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
+          <t xml:space="preserve">227
 </t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2846
-</t>
-        </is>
-      </c>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>9821</t>
-        </is>
-      </c>
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="n"/>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">709
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">243
 </t>
         </is>
       </c>
       <c r="X33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y33" s="2" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>819</t>
         </is>
       </c>
       <c r="Z33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">93
+          <t xml:space="preserve">64
 </t>
         </is>
       </c>
@@ -5191,142 +4911,127 @@
           <t>23</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3116
-</t>
-        </is>
-      </c>
+      <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">319
+          <t xml:space="preserve">322
 </t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2114
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1267
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">132
 </t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">128
 </t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35
-</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1194
+</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12117
+</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">02
 </t>
         </is>
       </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">218
-</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">217
-</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8254
-</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11990
-</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">302
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">694
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">133
+          <t xml:space="preserve">170
 </t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">622
+          <t xml:space="preserve">012
 </t>
         </is>
       </c>
       <c r="X34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">846
 </t>
         </is>
       </c>
       <c r="Y34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">820
+          <t xml:space="preserve">910
 </t>
         </is>
       </c>
       <c r="Z34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">45
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
@@ -5344,19 +5049,19 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3534
+          <t xml:space="preserve">8530
 </t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">304
 </t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
@@ -5368,119 +5073,122 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">124
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">40
+          <t xml:space="preserve">555
 </t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">985
 </t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">978
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">018
 </t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1311
+          <t xml:space="preserve">588
 </t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">224
 </t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">613
+          <t xml:space="preserve">021
 </t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">970
 </t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2466
-</t>
+          <t>9443</t>
         </is>
       </c>
       <c r="X35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
-</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Y35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
-</t>
-        </is>
-      </c>
-      <c r="Z35" s="2" t="n"/>
+          <t xml:space="preserve">2201
+</t>
+        </is>
+      </c>
+      <c r="Z35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">170
+</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>24</t>
@@ -5495,145 +5203,110 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4307
+          <t xml:space="preserve">2068
 </t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
-</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">222
+</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">949
 </t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
-</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">306
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">243
+</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2410
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
-</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9725
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">011
 </t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
+          <t xml:space="preserve">988
 </t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
-</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">297
-</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">622
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2116
+</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="inlineStr"/>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
-      </c>
-      <c r="V36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="W36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1246
-</t>
-        </is>
-      </c>
-      <c r="X36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">283
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">138
+</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="n"/>
+      <c r="W36" s="2" t="n"/>
+      <c r="X36" s="2" t="n"/>
       <c r="Y36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">720
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="Z36" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">218
+</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -5650,140 +5323,116 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16937
+          <t xml:space="preserve">1214119
 </t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1554
-</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1020
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1223
+</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>18871</t>
+          <t xml:space="preserve">1228
+</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">534
+          <t xml:space="preserve">309
 </t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">965
-</t>
+          <t>9332</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">1196
 </t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">356
-</t>
-        </is>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1060
-</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10159
-</t>
-        </is>
-      </c>
-      <c r="N37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">242
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="n"/>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11927
+          <t xml:space="preserve">2878
 </t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1537
+          <t xml:space="preserve">1992
 </t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1262
+          <t xml:space="preserve">1199
 </t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11431
+          <t xml:space="preserve">1512
 </t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3248
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">777
+          <t xml:space="preserve">038
 </t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1368
+          <t xml:space="preserve">1269
 </t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1216
+          <t xml:space="preserve">130
 </t>
         </is>
       </c>
       <c r="X37" s="2" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="Y37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">982
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1395
+</t>
+        </is>
+      </c>
+      <c r="Y37" s="2" t="n"/>
       <c r="Z37" s="2" t="n"/>
       <c r="AA37" t="inlineStr">
         <is>
@@ -5799,141 +5448,119 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3387
+          <t xml:space="preserve">1479
 </t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">310
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">2142
 </t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
-</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">181
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
+      <c r="L38" s="2" t="inlineStr"/>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1281
+          <t xml:space="preserve">0976
 </t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">985
+          <t xml:space="preserve">976
 </t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">03
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
-</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">650
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">924
+</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="n"/>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">155
+          <t xml:space="preserve">1119
 </t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">874
-</t>
-        </is>
-      </c>
-      <c r="W38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">243
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">9511
+</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="n"/>
       <c r="X38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">2129
 </t>
         </is>
       </c>
       <c r="Y38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">784
+          <t xml:space="preserve">1858
 </t>
         </is>
       </c>
       <c r="Z38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5950,145 +5577,123 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3325
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">319
+          <t xml:space="preserve">5304
 </t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
-</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">261
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">200
+</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">1011
 </t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1193
-</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">6
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9209
-</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr"/>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2148
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">050
 </t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">051
 </t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">719
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">860
-</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">898
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2216
+</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr"/>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">632
+          <t xml:space="preserve">621
 </t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">173
+          <t xml:space="preserve">1420
 </t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
-</t>
+          <t>921</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="X39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="Y39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">982
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="Z39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">386
+          <t xml:space="preserve">1200
 </t>
         </is>
       </c>
@@ -6106,145 +5711,142 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4537
-</t>
+          <t>8621</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">329
-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">852
 </t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">141
+          <t xml:space="preserve">178
 </t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1182
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">127
+          <t xml:space="preserve">1109
 </t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">817
 </t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9468
+          <t xml:space="preserve">8828
 </t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">978
+          <t xml:space="preserve">620
 </t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">328
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">9908
 </t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8293
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">592
+          <t xml:space="preserve">2080
 </t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">187
 </t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">224
 </t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
-</t>
+          <t>121</t>
         </is>
       </c>
       <c r="X40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="Y40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">2891
 </t>
         </is>
       </c>
       <c r="Z40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
@@ -6262,144 +5864,135 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2656
-</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">316
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">3127
+</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n"/>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8256
+          <t xml:space="preserve">237
 </t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">120
+          <t xml:space="preserve">142
 </t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1180
+          <t xml:space="preserve">190
 </t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">1884
 </t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50
+          <t xml:space="preserve">1248
 </t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>434</t>
-        </is>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">100
+</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="n"/>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9286
+          <t xml:space="preserve">9146
 </t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">800
 </t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">9800
 </t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">923
+          <t xml:space="preserve">1150
 </t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8281
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">234
+          <t xml:space="preserve">085
 </t>
         </is>
       </c>
       <c r="X41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="Y41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">905
+          <t xml:space="preserve">680
 </t>
         </is>
       </c>
       <c r="Z41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">89
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
@@ -6417,145 +6010,134 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2363
-</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1316
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2080
+</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">203
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">113
+          <t xml:space="preserve">103
 </t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1200
+          <t xml:space="preserve">169
 </t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
-</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9218
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">9219
+</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr"/>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">830
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1990
+          <t xml:space="preserve">870
 </t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">01
 </t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">312
 </t>
         </is>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">893
+          <t xml:space="preserve">977
 </t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">977
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">859
+          <t xml:space="preserve">229
 </t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
-</t>
+          <t>526</t>
         </is>
       </c>
       <c r="X42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">266
 </t>
         </is>
       </c>
       <c r="Y42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">906
+          <t xml:space="preserve">1099
 </t>
         </is>
       </c>
       <c r="Z42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">30
 </t>
         </is>
       </c>
@@ -6573,7 +6155,7 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3722
+          <t xml:space="preserve">2975
 </t>
         </is>
       </c>
@@ -6585,135 +6167,130 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">857
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1198
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">1209
 </t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">807
 </t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">928
+</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">310
+</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">259
+</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4302
+</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">671
+</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">146
+</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="X43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
+      <c r="Y43" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">860
 </t>
         </is>
       </c>
-      <c r="O43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">291
-</t>
-        </is>
-      </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">255
-</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">304
-</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">756
-</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">98
-</t>
-        </is>
-      </c>
-      <c r="V43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="W43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">847
-</t>
-        </is>
-      </c>
-      <c r="X43" s="2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="Y43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">780
-</t>
-        </is>
-      </c>
-      <c r="Z43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88
-</t>
-        </is>
-      </c>
+      <c r="Z43" s="2" t="inlineStr"/>
       <c r="AA43" t="inlineStr">
         <is>
           <t>30</t>
@@ -6728,148 +6305,132 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">3659
-</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">326
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1418
+</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">113
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
-</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">137
+          <t xml:space="preserve">522
 </t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">823
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">956
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">970
 </t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">800
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">304
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">620
+          <t xml:space="preserve">9860
 </t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">885
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="X44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
+          <t>198</t>
         </is>
       </c>
       <c r="Y44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">844
-</t>
-        </is>
-      </c>
-      <c r="Z44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">60
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">5753
+</t>
+        </is>
+      </c>
+      <c r="Z44" s="2" t="inlineStr"/>
       <c r="AA44" t="inlineStr">
         <is>
           <t>31</t>
@@ -6884,124 +6445,128 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19016
+          <t xml:space="preserve">111
 </t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1216
+          <t xml:space="preserve">91997
 </t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1561
-</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">691
-</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="inlineStr"/>
+          <t xml:space="preserve">167
+</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">95
+</t>
+        </is>
+      </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
-</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="inlineStr"/>
+          <t xml:space="preserve">286
+</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1203
+</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">18259
+          <t xml:space="preserve">1180
 </t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">1498
 </t>
         </is>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">59838
+          <t xml:space="preserve">5880
 </t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1728
-</t>
-        </is>
-      </c>
-      <c r="R45" s="2" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1680
+</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="n"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t xml:space="preserve">1630
+</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t xml:space="preserve">168
+</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
-</t>
-        </is>
-      </c>
-      <c r="V45" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t xml:space="preserve">681
+</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr"/>
       <c r="W45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1449
+          <t xml:space="preserve">13931
 </t>
         </is>
       </c>
       <c r="X45" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t xml:space="preserve">2681
+</t>
         </is>
       </c>
       <c r="Y45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5037
+          <t xml:space="preserve">908
 </t>
         </is>
       </c>
       <c r="Z45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">97
 </t>
         </is>
       </c>
@@ -7019,140 +6584,99 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2376
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">317
-</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">202
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">304
+</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">860
+          <t xml:space="preserve">869
 </t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
-</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">191
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">105
+</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n"/>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n"/>
+          <t xml:space="preserve">112
+</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1215
+</t>
+        </is>
+      </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
-</t>
+          <t>208</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">1205
 </t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">848
-</t>
-        </is>
-      </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">218
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2
+</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
+      <c r="R46" s="2" t="n"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">081
 </t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">750
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">113
 </t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2141
-</t>
-        </is>
-      </c>
-      <c r="X46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="Y46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">239
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1225
+</t>
+        </is>
+      </c>
+      <c r="X46" s="2" t="n"/>
+      <c r="Y46" s="2" t="n"/>
       <c r="Z46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">57
+          <t xml:space="preserve">51519
 </t>
         </is>
       </c>
@@ -7168,9 +6692,11 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31
+      <c r="C47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">158
 </t>
         </is>
       </c>
